--- a/Excel/TitleStage.xlsx
+++ b/Excel/TitleStage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0B9510-CCDD-4B4D-8274-777ACCD32D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13856490-DF67-4CC9-AA9F-31EC0865058F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -346,8 +346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AY10" sqref="AY10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AM37" sqref="AM37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5001,64 +5001,64 @@
         <v>0</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX31">
         <v>0</v>

--- a/Excel/TitleStage.xlsx
+++ b/Excel/TitleStage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13856490-DF67-4CC9-AA9F-31EC0865058F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278850E0-0420-4454-9AB8-E023E4B347BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11040" yWindow="0" windowWidth="10596" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -58,12 +58,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -346,161 +356,161 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AM37" sqref="AM37"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:50">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>0</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1">
-        <v>0</v>
-      </c>
-      <c r="J1">
-        <v>0</v>
-      </c>
-      <c r="K1">
-        <v>0</v>
-      </c>
-      <c r="L1">
-        <v>0</v>
-      </c>
-      <c r="M1">
-        <v>0</v>
-      </c>
-      <c r="N1">
-        <v>0</v>
-      </c>
-      <c r="O1">
-        <v>0</v>
-      </c>
-      <c r="P1">
-        <v>0</v>
-      </c>
-      <c r="Q1">
-        <v>0</v>
-      </c>
-      <c r="R1">
-        <v>0</v>
-      </c>
-      <c r="S1">
-        <v>0</v>
-      </c>
-      <c r="T1">
-        <v>0</v>
-      </c>
-      <c r="U1">
-        <v>0</v>
-      </c>
-      <c r="V1">
-        <v>0</v>
-      </c>
-      <c r="W1">
-        <v>0</v>
-      </c>
-      <c r="X1">
-        <v>0</v>
-      </c>
-      <c r="Y1">
-        <v>0</v>
-      </c>
-      <c r="Z1">
-        <v>0</v>
-      </c>
-      <c r="AA1">
-        <v>0</v>
-      </c>
-      <c r="AB1">
-        <v>0</v>
-      </c>
-      <c r="AC1">
-        <v>0</v>
-      </c>
-      <c r="AD1">
-        <v>0</v>
-      </c>
-      <c r="AE1">
-        <v>0</v>
-      </c>
-      <c r="AF1">
-        <v>0</v>
-      </c>
-      <c r="AG1">
-        <v>0</v>
-      </c>
-      <c r="AH1">
-        <v>0</v>
-      </c>
-      <c r="AI1">
-        <v>0</v>
-      </c>
-      <c r="AJ1">
-        <v>0</v>
-      </c>
-      <c r="AK1">
-        <v>0</v>
-      </c>
-      <c r="AL1">
-        <v>0</v>
-      </c>
-      <c r="AM1">
-        <v>0</v>
-      </c>
-      <c r="AN1">
-        <v>0</v>
-      </c>
-      <c r="AO1">
-        <v>0</v>
-      </c>
-      <c r="AP1">
-        <v>0</v>
-      </c>
-      <c r="AQ1">
-        <v>0</v>
-      </c>
-      <c r="AR1">
-        <v>0</v>
-      </c>
-      <c r="AS1">
-        <v>0</v>
-      </c>
-      <c r="AT1">
-        <v>0</v>
-      </c>
-      <c r="AU1">
-        <v>0</v>
-      </c>
-      <c r="AV1">
-        <v>0</v>
-      </c>
-      <c r="AW1">
-        <v>0</v>
-      </c>
-      <c r="AX1">
+    <row r="1" spans="1:50" ht="18.600000000000001" thickBot="1">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1">
+        <v>0</v>
+      </c>
+      <c r="P1" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>0</v>
+      </c>
+      <c r="R1" s="1">
+        <v>0</v>
+      </c>
+      <c r="S1" s="1">
+        <v>0</v>
+      </c>
+      <c r="T1" s="1">
+        <v>0</v>
+      </c>
+      <c r="U1" s="1">
+        <v>0</v>
+      </c>
+      <c r="V1" s="1">
+        <v>0</v>
+      </c>
+      <c r="W1" s="1">
+        <v>0</v>
+      </c>
+      <c r="X1" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX1" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Excel/TitleStage.xlsx
+++ b/Excel/TitleStage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36C2583-77DD-42DD-B7D5-1B8F4D6296B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9414CC4-B967-4020-B382-BEF7730B5725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10884" yWindow="300" windowWidth="10596" windowHeight="12240" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -294,7 +294,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FFFFC000"/>
@@ -322,6 +322,82 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -706,18 +782,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706EDC5C-04A0-48F3-8B37-5A4E1097AF7E}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AP27" sqref="AP26:AP27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="100" width="3.09765625" customWidth="1"/>
+    <col min="1" max="100" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:51" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7">
         <v>0</v>
       </c>
@@ -872,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A2" s="10">
         <v>0</v>
       </c>
@@ -1027,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1182,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -1337,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -1492,7 +1569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -1647,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -1802,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -1957,7 +2034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -2112,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -2267,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -2422,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -2577,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -2732,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -2887,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -3042,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -3197,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>0</v>
       </c>
@@ -3352,7 +3429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>0</v>
       </c>
@@ -3507,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>0</v>
       </c>
@@ -3662,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -3817,7 +3894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>0</v>
       </c>
@@ -3972,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>0</v>
       </c>
@@ -4127,7 +4204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>0</v>
       </c>
@@ -4282,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -4437,7 +4514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -4592,7 +4669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -4747,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>0</v>
       </c>
@@ -4902,7 +4979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>0</v>
       </c>
@@ -5057,7 +5134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>0</v>
       </c>
@@ -5212,7 +5289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>0</v>
       </c>
@@ -5259,10 +5336,10 @@
         <v>0</v>
       </c>
       <c r="P30" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q30" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R30" s="1">
         <v>0</v>
@@ -5367,7 +5444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>0</v>
       </c>
@@ -5411,16 +5488,16 @@
         <v>0</v>
       </c>
       <c r="O31" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P31" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q31" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R31" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S31" s="1">
         <v>0</v>
@@ -5522,7 +5599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>0</v>
       </c>
@@ -5572,13 +5649,13 @@
         <v>10</v>
       </c>
       <c r="Q32" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R32" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S32" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T32" s="1">
         <v>0</v>
@@ -5677,7 +5754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>0</v>
       </c>
@@ -5730,13 +5807,13 @@
         <v>10</v>
       </c>
       <c r="R33" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S33" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T33" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U33" s="1">
         <v>0</v>
@@ -5832,7 +5909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>0</v>
       </c>
@@ -5888,13 +5965,13 @@
         <v>0</v>
       </c>
       <c r="S34" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T34" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U34" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V34" s="1">
         <v>0</v>
@@ -5987,7 +6064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>0</v>
       </c>
@@ -6142,7 +6219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>0</v>
       </c>
@@ -6297,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>0</v>
       </c>
@@ -6452,7 +6529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>0</v>
       </c>
@@ -6607,7 +6684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>0</v>
       </c>
@@ -6762,7 +6839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>0</v>
       </c>
@@ -6917,7 +6994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:51" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:51" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="4">
         <v>0</v>
       </c>
@@ -7075,28 +7152,28 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BI2 AZ3:BI16 A3:AY41">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
-      <formula>11</formula>
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+      <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Excel/TitleStage.xlsx
+++ b/Excel/TitleStage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE6CB59-DB3A-4382-BC1F-20F9C817650E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3F1CAD-69C6-4F13-AFCA-42AAF6C96398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -152,9 +152,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -167,9 +165,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -182,10 +178,68 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -196,7 +250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -222,6 +276,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -643,8 +709,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AO30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH10" sqref="AH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -652,259 +718,259 @@
     <col min="1" max="100" width="3.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A1" s="6">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7">
-        <v>0</v>
-      </c>
-      <c r="D1" s="7">
-        <v>0</v>
-      </c>
-      <c r="E1" s="7">
-        <v>0</v>
-      </c>
-      <c r="F1" s="7">
-        <v>0</v>
-      </c>
-      <c r="G1" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1" s="7">
-        <v>0</v>
-      </c>
-      <c r="I1" s="7">
-        <v>0</v>
-      </c>
-      <c r="J1" s="7">
-        <v>0</v>
-      </c>
-      <c r="K1" s="7">
-        <v>0</v>
-      </c>
-      <c r="L1" s="7">
-        <v>0</v>
-      </c>
-      <c r="M1" s="7">
-        <v>0</v>
-      </c>
-      <c r="N1" s="7">
-        <v>0</v>
-      </c>
-      <c r="O1" s="7">
-        <v>0</v>
-      </c>
-      <c r="P1" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="7">
-        <v>0</v>
-      </c>
-      <c r="R1" s="7">
-        <v>0</v>
-      </c>
-      <c r="S1" s="7">
-        <v>0</v>
-      </c>
-      <c r="T1" s="7">
-        <v>0</v>
-      </c>
-      <c r="U1" s="7">
-        <v>0</v>
-      </c>
-      <c r="V1" s="7">
-        <v>0</v>
-      </c>
-      <c r="W1" s="7">
-        <v>0</v>
-      </c>
-      <c r="X1" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y1" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z1" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA1" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC1" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD1" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE1" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG1" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH1" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI1" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ1" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK1" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL1" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM1" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN1" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO1" s="8">
+    <row r="1" spans="1:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="10">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11">
+        <v>0</v>
+      </c>
+      <c r="D1" s="11">
+        <v>0</v>
+      </c>
+      <c r="E1" s="11">
+        <v>0</v>
+      </c>
+      <c r="F1" s="11">
+        <v>0</v>
+      </c>
+      <c r="G1" s="11">
+        <v>0</v>
+      </c>
+      <c r="H1" s="11">
+        <v>0</v>
+      </c>
+      <c r="I1" s="11">
+        <v>0</v>
+      </c>
+      <c r="J1" s="11">
+        <v>0</v>
+      </c>
+      <c r="K1" s="11">
+        <v>0</v>
+      </c>
+      <c r="L1" s="11">
+        <v>0</v>
+      </c>
+      <c r="M1" s="11">
+        <v>0</v>
+      </c>
+      <c r="N1" s="11">
+        <v>0</v>
+      </c>
+      <c r="O1" s="11">
+        <v>0</v>
+      </c>
+      <c r="P1" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="11">
+        <v>0</v>
+      </c>
+      <c r="R1" s="11">
+        <v>0</v>
+      </c>
+      <c r="S1" s="11">
+        <v>0</v>
+      </c>
+      <c r="T1" s="11">
+        <v>0</v>
+      </c>
+      <c r="U1" s="11">
+        <v>0</v>
+      </c>
+      <c r="V1" s="11">
+        <v>0</v>
+      </c>
+      <c r="W1" s="11">
+        <v>0</v>
+      </c>
+      <c r="X1" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG1" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI1" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK1" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL1" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM1" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN1" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO1" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0</v>
-      </c>
-      <c r="W2" s="1">
-        <v>0</v>
-      </c>
-      <c r="X2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>30</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>30</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>30</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>30</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>30</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>30</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>30</v>
-      </c>
-      <c r="AM2" s="1">
-        <v>30</v>
-      </c>
-      <c r="AN2" s="1">
-        <v>30</v>
-      </c>
-      <c r="AO2" s="3">
+      <c r="A2" s="6">
+        <v>20</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0</v>
+      </c>
+      <c r="P2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>0</v>
+      </c>
+      <c r="R2" s="7">
+        <v>0</v>
+      </c>
+      <c r="S2" s="7">
+        <v>0</v>
+      </c>
+      <c r="T2" s="7">
+        <v>0</v>
+      </c>
+      <c r="U2" s="7">
+        <v>0</v>
+      </c>
+      <c r="V2" s="7">
+        <v>0</v>
+      </c>
+      <c r="W2" s="7">
+        <v>0</v>
+      </c>
+      <c r="X2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>30</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="7">
+        <v>30</v>
+      </c>
+      <c r="AH2" s="7">
+        <v>30</v>
+      </c>
+      <c r="AI2" s="7">
+        <v>30</v>
+      </c>
+      <c r="AJ2" s="7">
+        <v>30</v>
+      </c>
+      <c r="AK2" s="7">
+        <v>30</v>
+      </c>
+      <c r="AL2" s="7">
+        <v>30</v>
+      </c>
+      <c r="AM2" s="7">
+        <v>30</v>
+      </c>
+      <c r="AN2" s="7">
+        <v>30</v>
+      </c>
+      <c r="AO2" s="9">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -1029,7 +1095,7 @@
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -1154,7 +1220,7 @@
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -1279,7 +1345,7 @@
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -1404,7 +1470,7 @@
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -1529,7 +1595,7 @@
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -1654,7 +1720,7 @@
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -1779,7 +1845,7 @@
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -1904,7 +1970,7 @@
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -2029,7 +2095,7 @@
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -2154,7 +2220,7 @@
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -2279,7 +2345,7 @@
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -2404,7 +2470,7 @@
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -2529,7 +2595,7 @@
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -2654,7 +2720,7 @@
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -2779,7 +2845,7 @@
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -2904,7 +2970,7 @@
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -3029,7 +3095,7 @@
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -3154,7 +3220,7 @@
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -3279,7 +3345,7 @@
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -3404,7 +3470,7 @@
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1">
         <v>13</v>
@@ -3529,7 +3595,7 @@
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B24" s="1">
         <v>31</v>
@@ -3654,7 +3720,7 @@
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B25" s="1">
         <v>31</v>
@@ -3773,13 +3839,13 @@
       <c r="AN25" s="1">
         <v>31</v>
       </c>
-      <c r="AO25" s="1">
+      <c r="AO25" s="3">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B26" s="1">
         <v>31</v>
@@ -3898,513 +3964,267 @@
       <c r="AN26" s="1">
         <v>31</v>
       </c>
-      <c r="AO26" s="1">
+      <c r="AO26" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A27" s="2">
-        <v>31</v>
-      </c>
-      <c r="B27" s="1">
-        <v>31</v>
-      </c>
-      <c r="C27" s="1">
-        <v>31</v>
-      </c>
-      <c r="D27" s="1">
-        <v>31</v>
-      </c>
-      <c r="E27" s="1">
-        <v>31</v>
-      </c>
-      <c r="F27" s="1">
-        <v>31</v>
-      </c>
-      <c r="G27" s="1">
-        <v>31</v>
-      </c>
-      <c r="H27" s="1">
-        <v>31</v>
-      </c>
-      <c r="I27" s="1">
+    <row r="27" spans="1:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="4">
+        <v>20</v>
+      </c>
+      <c r="B27" s="5">
+        <v>31</v>
+      </c>
+      <c r="C27" s="5">
+        <v>31</v>
+      </c>
+      <c r="D27" s="5">
+        <v>31</v>
+      </c>
+      <c r="E27" s="5">
+        <v>31</v>
+      </c>
+      <c r="F27" s="5">
+        <v>31</v>
+      </c>
+      <c r="G27" s="5">
+        <v>31</v>
+      </c>
+      <c r="H27" s="5">
+        <v>31</v>
+      </c>
+      <c r="I27" s="5">
         <v>13</v>
       </c>
-      <c r="J27" s="1">
-        <v>0</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0</v>
-      </c>
-      <c r="L27" s="1">
-        <v>0</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0</v>
-      </c>
-      <c r="N27" s="1">
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0</v>
+      </c>
+      <c r="M27" s="5">
+        <v>0</v>
+      </c>
+      <c r="N27" s="5">
         <v>10</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="5">
         <v>10</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="5">
         <v>10</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="5">
         <v>10</v>
       </c>
-      <c r="R27" s="1">
-        <v>0</v>
-      </c>
-      <c r="S27" s="1">
-        <v>0</v>
-      </c>
-      <c r="T27" s="1">
-        <v>0</v>
-      </c>
-      <c r="U27" s="1">
-        <v>0</v>
-      </c>
-      <c r="V27" s="1">
-        <v>0</v>
-      </c>
-      <c r="W27" s="1">
-        <v>0</v>
-      </c>
-      <c r="X27" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="1">
-        <v>31</v>
-      </c>
-      <c r="AF27" s="1">
-        <v>31</v>
-      </c>
-      <c r="AG27" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH27" s="1">
-        <v>31</v>
-      </c>
-      <c r="AI27" s="1">
-        <v>31</v>
-      </c>
-      <c r="AJ27" s="1">
-        <v>31</v>
-      </c>
-      <c r="AK27" s="1">
-        <v>31</v>
-      </c>
-      <c r="AL27" s="1">
-        <v>31</v>
-      </c>
-      <c r="AM27" s="1">
-        <v>31</v>
-      </c>
-      <c r="AN27" s="1">
-        <v>31</v>
-      </c>
-      <c r="AO27" s="1">
+      <c r="R27" s="5">
+        <v>0</v>
+      </c>
+      <c r="S27" s="5">
+        <v>0</v>
+      </c>
+      <c r="T27" s="5">
+        <v>0</v>
+      </c>
+      <c r="U27" s="5">
+        <v>0</v>
+      </c>
+      <c r="V27" s="5">
+        <v>0</v>
+      </c>
+      <c r="W27" s="5">
+        <v>0</v>
+      </c>
+      <c r="X27" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="5">
+        <v>31</v>
+      </c>
+      <c r="AF27" s="5">
+        <v>31</v>
+      </c>
+      <c r="AG27" s="5">
+        <v>31</v>
+      </c>
+      <c r="AH27" s="5">
+        <v>31</v>
+      </c>
+      <c r="AI27" s="5">
+        <v>31</v>
+      </c>
+      <c r="AJ27" s="5">
+        <v>31</v>
+      </c>
+      <c r="AK27" s="5">
+        <v>31</v>
+      </c>
+      <c r="AL27" s="5">
+        <v>31</v>
+      </c>
+      <c r="AM27" s="5">
+        <v>31</v>
+      </c>
+      <c r="AN27" s="5">
+        <v>31</v>
+      </c>
+      <c r="AO27" s="8">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A28" s="2">
-        <v>31</v>
-      </c>
-      <c r="B28" s="1">
-        <v>31</v>
-      </c>
-      <c r="C28" s="1">
-        <v>31</v>
-      </c>
-      <c r="D28" s="1">
-        <v>31</v>
-      </c>
-      <c r="E28" s="1">
-        <v>31</v>
-      </c>
-      <c r="F28" s="1">
-        <v>31</v>
-      </c>
-      <c r="G28" s="1">
-        <v>31</v>
-      </c>
-      <c r="H28" s="1">
-        <v>31</v>
-      </c>
-      <c r="I28" s="1">
-        <v>31</v>
-      </c>
-      <c r="J28" s="1">
-        <v>13</v>
-      </c>
-      <c r="K28" s="1">
-        <v>13</v>
-      </c>
-      <c r="L28" s="1">
-        <v>13</v>
-      </c>
-      <c r="M28" s="1">
-        <v>0</v>
-      </c>
-      <c r="N28" s="1">
-        <v>0</v>
-      </c>
-      <c r="O28" s="1">
-        <v>0</v>
-      </c>
-      <c r="P28" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>0</v>
-      </c>
-      <c r="R28" s="1">
-        <v>0</v>
-      </c>
-      <c r="S28" s="1">
-        <v>0</v>
-      </c>
-      <c r="T28" s="1">
-        <v>0</v>
-      </c>
-      <c r="U28" s="1">
-        <v>0</v>
-      </c>
-      <c r="V28" s="1">
-        <v>0</v>
-      </c>
-      <c r="W28" s="1">
-        <v>0</v>
-      </c>
-      <c r="X28" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="1">
-        <v>31</v>
-      </c>
-      <c r="AF28" s="1">
-        <v>31</v>
-      </c>
-      <c r="AG28" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH28" s="1">
-        <v>31</v>
-      </c>
-      <c r="AI28" s="1">
-        <v>31</v>
-      </c>
-      <c r="AJ28" s="1">
-        <v>31</v>
-      </c>
-      <c r="AK28" s="1">
-        <v>31</v>
-      </c>
-      <c r="AL28" s="1">
-        <v>31</v>
-      </c>
-      <c r="AM28" s="1">
-        <v>31</v>
-      </c>
-      <c r="AN28" s="1">
-        <v>31</v>
-      </c>
-      <c r="AO28" s="1">
-        <v>31</v>
-      </c>
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="7"/>
+      <c r="AH28" s="7"/>
+      <c r="AI28" s="7"/>
+      <c r="AJ28" s="7"/>
+      <c r="AK28" s="7"/>
+      <c r="AL28" s="7"/>
+      <c r="AM28" s="7"/>
+      <c r="AN28" s="7"/>
+      <c r="AO28" s="7"/>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A29" s="2">
-        <v>31</v>
-      </c>
-      <c r="B29" s="1">
-        <v>31</v>
-      </c>
-      <c r="C29" s="1">
-        <v>31</v>
-      </c>
-      <c r="D29" s="1">
-        <v>31</v>
-      </c>
-      <c r="E29" s="1">
-        <v>31</v>
-      </c>
-      <c r="F29" s="1">
-        <v>31</v>
-      </c>
-      <c r="G29" s="1">
-        <v>31</v>
-      </c>
-      <c r="H29" s="1">
-        <v>31</v>
-      </c>
-      <c r="I29" s="1">
-        <v>31</v>
-      </c>
-      <c r="J29" s="1">
-        <v>31</v>
-      </c>
-      <c r="K29" s="1">
-        <v>31</v>
-      </c>
-      <c r="L29" s="1">
-        <v>31</v>
-      </c>
-      <c r="M29" s="1">
-        <v>13</v>
-      </c>
-      <c r="N29" s="1">
-        <v>0</v>
-      </c>
-      <c r="O29" s="1">
-        <v>0</v>
-      </c>
-      <c r="P29" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>0</v>
-      </c>
-      <c r="R29" s="1">
-        <v>0</v>
-      </c>
-      <c r="S29" s="1">
-        <v>0</v>
-      </c>
-      <c r="T29" s="1">
-        <v>0</v>
-      </c>
-      <c r="U29" s="1">
-        <v>0</v>
-      </c>
-      <c r="V29" s="1">
-        <v>0</v>
-      </c>
-      <c r="W29" s="1">
-        <v>0</v>
-      </c>
-      <c r="X29" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="1">
-        <v>31</v>
-      </c>
-      <c r="AF29" s="1">
-        <v>31</v>
-      </c>
-      <c r="AG29" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH29" s="1">
-        <v>31</v>
-      </c>
-      <c r="AI29" s="1">
-        <v>31</v>
-      </c>
-      <c r="AJ29" s="1">
-        <v>31</v>
-      </c>
-      <c r="AK29" s="1">
-        <v>31</v>
-      </c>
-      <c r="AL29" s="1">
-        <v>31</v>
-      </c>
-      <c r="AM29" s="1">
-        <v>31</v>
-      </c>
-      <c r="AN29" s="1">
-        <v>31</v>
-      </c>
-      <c r="AO29" s="1">
-        <v>31</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
     </row>
     <row r="30" spans="1:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="4">
-        <v>31</v>
-      </c>
-      <c r="B30" s="5">
-        <v>31</v>
-      </c>
-      <c r="C30" s="5">
-        <v>31</v>
-      </c>
-      <c r="D30" s="5">
-        <v>31</v>
-      </c>
-      <c r="E30" s="5">
-        <v>31</v>
-      </c>
-      <c r="F30" s="5">
-        <v>31</v>
-      </c>
-      <c r="G30" s="5">
-        <v>31</v>
-      </c>
-      <c r="H30" s="5">
-        <v>31</v>
-      </c>
-      <c r="I30" s="5">
-        <v>31</v>
-      </c>
-      <c r="J30" s="5">
-        <v>31</v>
-      </c>
-      <c r="K30" s="5">
-        <v>31</v>
-      </c>
-      <c r="L30" s="5">
-        <v>31</v>
-      </c>
-      <c r="M30" s="5">
-        <v>31</v>
-      </c>
-      <c r="N30" s="5">
-        <v>13</v>
-      </c>
-      <c r="O30" s="5">
-        <v>0</v>
-      </c>
-      <c r="P30" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="5">
-        <v>0</v>
-      </c>
-      <c r="R30" s="5">
-        <v>0</v>
-      </c>
-      <c r="S30" s="5">
-        <v>0</v>
-      </c>
-      <c r="T30" s="5">
-        <v>0</v>
-      </c>
-      <c r="U30" s="5">
-        <v>0</v>
-      </c>
-      <c r="V30" s="5">
-        <v>0</v>
-      </c>
-      <c r="W30" s="5">
-        <v>0</v>
-      </c>
-      <c r="X30" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="1">
-        <v>31</v>
-      </c>
-      <c r="AF30" s="1">
-        <v>31</v>
-      </c>
-      <c r="AG30" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH30" s="1">
-        <v>31</v>
-      </c>
-      <c r="AI30" s="1">
-        <v>31</v>
-      </c>
-      <c r="AJ30" s="1">
-        <v>31</v>
-      </c>
-      <c r="AK30" s="1">
-        <v>31</v>
-      </c>
-      <c r="AL30" s="1">
-        <v>31</v>
-      </c>
-      <c r="AM30" s="1">
-        <v>31</v>
-      </c>
-      <c r="AN30" s="1">
-        <v>31</v>
-      </c>
-      <c r="AO30" s="1">
-        <v>31</v>
-      </c>
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:BI2 AZ3:BI16 A3:AY41">
+  <conditionalFormatting sqref="A1:BI2 AZ3:BI16 A3:AY41 A1:A27">
     <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>30</formula>
     </cfRule>

--- a/Excel/TitleStage.xlsx
+++ b/Excel/TitleStage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFADD479-AA11-4A91-A5BD-6F3360B27E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0F6905-B0E8-40ED-BAB2-AFFBE00AE301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="0" windowWidth="20052" windowHeight="12240" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="2988" yWindow="828" windowWidth="20052" windowHeight="11412" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -244,13 +244,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -288,6 +299,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -707,10 +721,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706EDC5C-04A0-48F3-8B37-5A4E1097AF7E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AQ28"/>
+  <dimension ref="A1:AV33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AW22" sqref="AW22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -718,7 +732,7 @@
     <col min="1" max="100" width="3.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:48" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="10">
         <v>0</v>
       </c>
@@ -848,8 +862,23 @@
       <c r="AQ1" s="12">
         <v>0</v>
       </c>
+      <c r="AR1" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS1" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT1" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU1" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV1" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>20</v>
       </c>
@@ -979,8 +1008,23 @@
       <c r="AQ2" s="9">
         <v>30</v>
       </c>
+      <c r="AR2" s="9">
+        <v>30</v>
+      </c>
+      <c r="AS2" s="9">
+        <v>30</v>
+      </c>
+      <c r="AT2" s="9">
+        <v>30</v>
+      </c>
+      <c r="AU2" s="9">
+        <v>30</v>
+      </c>
+      <c r="AV2" s="9">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>20</v>
       </c>
@@ -1110,8 +1154,23 @@
       <c r="AQ3" s="3">
         <v>30</v>
       </c>
+      <c r="AR3" s="3">
+        <v>30</v>
+      </c>
+      <c r="AS3" s="3">
+        <v>30</v>
+      </c>
+      <c r="AT3" s="3">
+        <v>30</v>
+      </c>
+      <c r="AU3" s="3">
+        <v>30</v>
+      </c>
+      <c r="AV3" s="3">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>20</v>
       </c>
@@ -1241,8 +1300,23 @@
       <c r="AQ4" s="3">
         <v>30</v>
       </c>
+      <c r="AR4" s="3">
+        <v>30</v>
+      </c>
+      <c r="AS4" s="3">
+        <v>30</v>
+      </c>
+      <c r="AT4" s="3">
+        <v>30</v>
+      </c>
+      <c r="AU4" s="3">
+        <v>30</v>
+      </c>
+      <c r="AV4" s="3">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>20</v>
       </c>
@@ -1372,8 +1446,23 @@
       <c r="AQ5" s="3">
         <v>30</v>
       </c>
+      <c r="AR5" s="3">
+        <v>30</v>
+      </c>
+      <c r="AS5" s="3">
+        <v>30</v>
+      </c>
+      <c r="AT5" s="3">
+        <v>30</v>
+      </c>
+      <c r="AU5" s="3">
+        <v>30</v>
+      </c>
+      <c r="AV5" s="3">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>20</v>
       </c>
@@ -1503,8 +1592,23 @@
       <c r="AQ6" s="3">
         <v>30</v>
       </c>
+      <c r="AR6" s="3">
+        <v>30</v>
+      </c>
+      <c r="AS6" s="3">
+        <v>30</v>
+      </c>
+      <c r="AT6" s="3">
+        <v>30</v>
+      </c>
+      <c r="AU6" s="3">
+        <v>30</v>
+      </c>
+      <c r="AV6" s="3">
+        <v>30</v>
+      </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>20</v>
       </c>
@@ -1634,8 +1738,23 @@
       <c r="AQ7" s="3">
         <v>20</v>
       </c>
+      <c r="AR7" s="3">
+        <v>20</v>
+      </c>
+      <c r="AS7" s="3">
+        <v>20</v>
+      </c>
+      <c r="AT7" s="3">
+        <v>20</v>
+      </c>
+      <c r="AU7" s="3">
+        <v>20</v>
+      </c>
+      <c r="AV7" s="3">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>20</v>
       </c>
@@ -1765,8 +1884,23 @@
       <c r="AQ8" s="3">
         <v>20</v>
       </c>
+      <c r="AR8" s="3">
+        <v>20</v>
+      </c>
+      <c r="AS8" s="3">
+        <v>20</v>
+      </c>
+      <c r="AT8" s="3">
+        <v>20</v>
+      </c>
+      <c r="AU8" s="3">
+        <v>20</v>
+      </c>
+      <c r="AV8" s="3">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>20</v>
       </c>
@@ -1896,8 +2030,23 @@
       <c r="AQ9" s="3">
         <v>31</v>
       </c>
+      <c r="AR9" s="3">
+        <v>31</v>
+      </c>
+      <c r="AS9" s="3">
+        <v>31</v>
+      </c>
+      <c r="AT9" s="3">
+        <v>31</v>
+      </c>
+      <c r="AU9" s="3">
+        <v>31</v>
+      </c>
+      <c r="AV9" s="3">
+        <v>31</v>
+      </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>20</v>
       </c>
@@ -2027,8 +2176,23 @@
       <c r="AQ10" s="3">
         <v>31</v>
       </c>
+      <c r="AR10" s="3">
+        <v>31</v>
+      </c>
+      <c r="AS10" s="3">
+        <v>31</v>
+      </c>
+      <c r="AT10" s="3">
+        <v>31</v>
+      </c>
+      <c r="AU10" s="3">
+        <v>31</v>
+      </c>
+      <c r="AV10" s="3">
+        <v>31</v>
+      </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>20</v>
       </c>
@@ -2158,8 +2322,23 @@
       <c r="AQ11" s="3">
         <v>31</v>
       </c>
+      <c r="AR11" s="3">
+        <v>31</v>
+      </c>
+      <c r="AS11" s="3">
+        <v>31</v>
+      </c>
+      <c r="AT11" s="3">
+        <v>31</v>
+      </c>
+      <c r="AU11" s="3">
+        <v>31</v>
+      </c>
+      <c r="AV11" s="3">
+        <v>31</v>
+      </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>20</v>
       </c>
@@ -2289,8 +2468,23 @@
       <c r="AQ12" s="3">
         <v>31</v>
       </c>
+      <c r="AR12" s="3">
+        <v>31</v>
+      </c>
+      <c r="AS12" s="3">
+        <v>31</v>
+      </c>
+      <c r="AT12" s="3">
+        <v>31</v>
+      </c>
+      <c r="AU12" s="3">
+        <v>31</v>
+      </c>
+      <c r="AV12" s="3">
+        <v>31</v>
+      </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>20</v>
       </c>
@@ -2420,8 +2614,23 @@
       <c r="AQ13" s="3">
         <v>31</v>
       </c>
+      <c r="AR13" s="3">
+        <v>31</v>
+      </c>
+      <c r="AS13" s="3">
+        <v>31</v>
+      </c>
+      <c r="AT13" s="3">
+        <v>31</v>
+      </c>
+      <c r="AU13" s="3">
+        <v>31</v>
+      </c>
+      <c r="AV13" s="3">
+        <v>31</v>
+      </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>20</v>
       </c>
@@ -2551,8 +2760,23 @@
       <c r="AQ14" s="3">
         <v>31</v>
       </c>
+      <c r="AR14" s="3">
+        <v>31</v>
+      </c>
+      <c r="AS14" s="3">
+        <v>31</v>
+      </c>
+      <c r="AT14" s="3">
+        <v>31</v>
+      </c>
+      <c r="AU14" s="3">
+        <v>31</v>
+      </c>
+      <c r="AV14" s="3">
+        <v>31</v>
+      </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>20</v>
       </c>
@@ -2682,8 +2906,23 @@
       <c r="AQ15" s="3">
         <v>0</v>
       </c>
+      <c r="AR15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>20</v>
       </c>
@@ -2813,8 +3052,23 @@
       <c r="AQ16" s="3">
         <v>0</v>
       </c>
+      <c r="AR16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>20</v>
       </c>
@@ -2944,8 +3198,23 @@
       <c r="AQ17" s="3">
         <v>0</v>
       </c>
+      <c r="AR17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>20</v>
       </c>
@@ -3075,8 +3344,23 @@
       <c r="AQ18" s="3">
         <v>0</v>
       </c>
+      <c r="AR18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>20</v>
       </c>
@@ -3206,8 +3490,23 @@
       <c r="AQ19" s="3">
         <v>0</v>
       </c>
+      <c r="AR19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>20</v>
       </c>
@@ -3337,8 +3636,23 @@
       <c r="AQ20" s="3">
         <v>0</v>
       </c>
+      <c r="AR20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -3468,8 +3782,23 @@
       <c r="AQ21" s="3">
         <v>0</v>
       </c>
+      <c r="AR21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -3579,28 +3908,43 @@
         <v>1</v>
       </c>
       <c r="AK22" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL22" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AM22" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AN22" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AO22" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AP22" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AQ22" s="3">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="AR22" s="3">
+        <v>6</v>
+      </c>
+      <c r="AS22" s="3">
+        <v>6</v>
+      </c>
+      <c r="AT22" s="3">
+        <v>6</v>
+      </c>
+      <c r="AU22" s="3">
+        <v>6</v>
+      </c>
+      <c r="AV22" s="3">
+        <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -3730,8 +4074,23 @@
       <c r="AQ23" s="3">
         <v>0</v>
       </c>
+      <c r="AR23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -3861,8 +4220,23 @@
       <c r="AQ24" s="3">
         <v>0</v>
       </c>
+      <c r="AR24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>20</v>
       </c>
@@ -3992,8 +4366,23 @@
       <c r="AQ25" s="3">
         <v>31</v>
       </c>
+      <c r="AR25" s="3">
+        <v>31</v>
+      </c>
+      <c r="AS25" s="3">
+        <v>31</v>
+      </c>
+      <c r="AT25" s="3">
+        <v>31</v>
+      </c>
+      <c r="AU25" s="3">
+        <v>31</v>
+      </c>
+      <c r="AV25" s="3">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>20</v>
       </c>
@@ -4123,8 +4512,23 @@
       <c r="AQ26" s="3">
         <v>31</v>
       </c>
+      <c r="AR26" s="3">
+        <v>31</v>
+      </c>
+      <c r="AS26" s="3">
+        <v>31</v>
+      </c>
+      <c r="AT26" s="3">
+        <v>31</v>
+      </c>
+      <c r="AU26" s="3">
+        <v>31</v>
+      </c>
+      <c r="AV26" s="3">
+        <v>31</v>
+      </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>20</v>
       </c>
@@ -4254,8 +4658,23 @@
       <c r="AQ27" s="3">
         <v>31</v>
       </c>
+      <c r="AR27" s="3">
+        <v>31</v>
+      </c>
+      <c r="AS27" s="3">
+        <v>31</v>
+      </c>
+      <c r="AT27" s="3">
+        <v>31</v>
+      </c>
+      <c r="AU27" s="3">
+        <v>31</v>
+      </c>
+      <c r="AV27" s="3">
+        <v>31</v>
+      </c>
     </row>
-    <row r="28" spans="1:43" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:48" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="4">
         <v>20</v>
       </c>
@@ -4384,11 +4803,756 @@
       </c>
       <c r="AQ28" s="8">
         <v>20</v>
+      </c>
+      <c r="AR28" s="8">
+        <v>20</v>
+      </c>
+      <c r="AS28" s="8">
+        <v>20</v>
+      </c>
+      <c r="AT28" s="8">
+        <v>20</v>
+      </c>
+      <c r="AU28" s="8">
+        <v>20</v>
+      </c>
+      <c r="AV28" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="A29" s="13">
+        <v>31</v>
+      </c>
+      <c r="B29" s="13">
+        <v>31</v>
+      </c>
+      <c r="C29" s="13">
+        <v>31</v>
+      </c>
+      <c r="D29" s="13">
+        <v>31</v>
+      </c>
+      <c r="E29" s="13">
+        <v>31</v>
+      </c>
+      <c r="F29" s="13">
+        <v>31</v>
+      </c>
+      <c r="G29" s="13">
+        <v>31</v>
+      </c>
+      <c r="H29" s="13">
+        <v>31</v>
+      </c>
+      <c r="I29" s="13">
+        <v>31</v>
+      </c>
+      <c r="J29" s="13">
+        <v>31</v>
+      </c>
+      <c r="K29" s="13">
+        <v>31</v>
+      </c>
+      <c r="L29" s="13">
+        <v>31</v>
+      </c>
+      <c r="M29" s="13">
+        <v>31</v>
+      </c>
+      <c r="N29" s="13">
+        <v>31</v>
+      </c>
+      <c r="O29" s="13">
+        <v>31</v>
+      </c>
+      <c r="P29" s="13">
+        <v>31</v>
+      </c>
+      <c r="Q29" s="13">
+        <v>31</v>
+      </c>
+      <c r="R29" s="13">
+        <v>31</v>
+      </c>
+      <c r="S29" s="13">
+        <v>31</v>
+      </c>
+      <c r="T29" s="13">
+        <v>31</v>
+      </c>
+      <c r="U29" s="13">
+        <v>31</v>
+      </c>
+      <c r="V29" s="13">
+        <v>31</v>
+      </c>
+      <c r="W29" s="13">
+        <v>31</v>
+      </c>
+      <c r="X29" s="13">
+        <v>31</v>
+      </c>
+      <c r="Y29" s="13">
+        <v>31</v>
+      </c>
+      <c r="Z29" s="13">
+        <v>31</v>
+      </c>
+      <c r="AA29" s="13">
+        <v>31</v>
+      </c>
+      <c r="AB29" s="13">
+        <v>31</v>
+      </c>
+      <c r="AC29" s="13">
+        <v>31</v>
+      </c>
+      <c r="AD29" s="13">
+        <v>31</v>
+      </c>
+      <c r="AE29" s="13">
+        <v>31</v>
+      </c>
+      <c r="AF29" s="13">
+        <v>31</v>
+      </c>
+      <c r="AG29" s="13">
+        <v>31</v>
+      </c>
+      <c r="AH29" s="13">
+        <v>31</v>
+      </c>
+      <c r="AI29" s="13">
+        <v>31</v>
+      </c>
+      <c r="AJ29" s="13">
+        <v>31</v>
+      </c>
+      <c r="AK29" s="13">
+        <v>31</v>
+      </c>
+      <c r="AL29" s="13">
+        <v>31</v>
+      </c>
+      <c r="AM29" s="13">
+        <v>31</v>
+      </c>
+      <c r="AN29" s="13">
+        <v>31</v>
+      </c>
+      <c r="AO29" s="13">
+        <v>31</v>
+      </c>
+      <c r="AP29" s="13">
+        <v>31</v>
+      </c>
+      <c r="AQ29" s="13">
+        <v>31</v>
+      </c>
+      <c r="AR29" s="13">
+        <v>31</v>
+      </c>
+      <c r="AS29" s="13">
+        <v>31</v>
+      </c>
+      <c r="AT29" s="13">
+        <v>31</v>
+      </c>
+      <c r="AU29" s="13">
+        <v>31</v>
+      </c>
+      <c r="AV29" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="A30" s="13">
+        <v>31</v>
+      </c>
+      <c r="B30" s="13">
+        <v>31</v>
+      </c>
+      <c r="C30" s="13">
+        <v>31</v>
+      </c>
+      <c r="D30" s="13">
+        <v>31</v>
+      </c>
+      <c r="E30" s="13">
+        <v>31</v>
+      </c>
+      <c r="F30" s="13">
+        <v>31</v>
+      </c>
+      <c r="G30" s="13">
+        <v>31</v>
+      </c>
+      <c r="H30" s="13">
+        <v>31</v>
+      </c>
+      <c r="I30" s="13">
+        <v>31</v>
+      </c>
+      <c r="J30" s="13">
+        <v>31</v>
+      </c>
+      <c r="K30" s="13">
+        <v>31</v>
+      </c>
+      <c r="L30" s="13">
+        <v>31</v>
+      </c>
+      <c r="M30" s="13">
+        <v>31</v>
+      </c>
+      <c r="N30" s="13">
+        <v>31</v>
+      </c>
+      <c r="O30" s="13">
+        <v>31</v>
+      </c>
+      <c r="P30" s="13">
+        <v>31</v>
+      </c>
+      <c r="Q30" s="13">
+        <v>31</v>
+      </c>
+      <c r="R30" s="13">
+        <v>31</v>
+      </c>
+      <c r="S30" s="13">
+        <v>31</v>
+      </c>
+      <c r="T30" s="13">
+        <v>31</v>
+      </c>
+      <c r="U30" s="13">
+        <v>31</v>
+      </c>
+      <c r="V30" s="13">
+        <v>31</v>
+      </c>
+      <c r="W30" s="13">
+        <v>31</v>
+      </c>
+      <c r="X30" s="13">
+        <v>31</v>
+      </c>
+      <c r="Y30" s="13">
+        <v>31</v>
+      </c>
+      <c r="Z30" s="13">
+        <v>31</v>
+      </c>
+      <c r="AA30" s="13">
+        <v>31</v>
+      </c>
+      <c r="AB30" s="13">
+        <v>31</v>
+      </c>
+      <c r="AC30" s="13">
+        <v>31</v>
+      </c>
+      <c r="AD30" s="13">
+        <v>31</v>
+      </c>
+      <c r="AE30" s="13">
+        <v>31</v>
+      </c>
+      <c r="AF30" s="13">
+        <v>31</v>
+      </c>
+      <c r="AG30" s="13">
+        <v>31</v>
+      </c>
+      <c r="AH30" s="13">
+        <v>31</v>
+      </c>
+      <c r="AI30" s="13">
+        <v>31</v>
+      </c>
+      <c r="AJ30" s="13">
+        <v>31</v>
+      </c>
+      <c r="AK30" s="13">
+        <v>31</v>
+      </c>
+      <c r="AL30" s="13">
+        <v>31</v>
+      </c>
+      <c r="AM30" s="13">
+        <v>31</v>
+      </c>
+      <c r="AN30" s="13">
+        <v>31</v>
+      </c>
+      <c r="AO30" s="13">
+        <v>31</v>
+      </c>
+      <c r="AP30" s="13">
+        <v>31</v>
+      </c>
+      <c r="AQ30" s="13">
+        <v>31</v>
+      </c>
+      <c r="AR30" s="13">
+        <v>31</v>
+      </c>
+      <c r="AS30" s="13">
+        <v>31</v>
+      </c>
+      <c r="AT30" s="13">
+        <v>31</v>
+      </c>
+      <c r="AU30" s="13">
+        <v>31</v>
+      </c>
+      <c r="AV30" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="A31" s="13">
+        <v>31</v>
+      </c>
+      <c r="B31" s="13">
+        <v>31</v>
+      </c>
+      <c r="C31" s="13">
+        <v>31</v>
+      </c>
+      <c r="D31" s="13">
+        <v>31</v>
+      </c>
+      <c r="E31" s="13">
+        <v>31</v>
+      </c>
+      <c r="F31" s="13">
+        <v>31</v>
+      </c>
+      <c r="G31" s="13">
+        <v>31</v>
+      </c>
+      <c r="H31" s="13">
+        <v>31</v>
+      </c>
+      <c r="I31" s="13">
+        <v>31</v>
+      </c>
+      <c r="J31" s="13">
+        <v>31</v>
+      </c>
+      <c r="K31" s="13">
+        <v>31</v>
+      </c>
+      <c r="L31" s="13">
+        <v>31</v>
+      </c>
+      <c r="M31" s="13">
+        <v>31</v>
+      </c>
+      <c r="N31" s="13">
+        <v>31</v>
+      </c>
+      <c r="O31" s="13">
+        <v>31</v>
+      </c>
+      <c r="P31" s="13">
+        <v>31</v>
+      </c>
+      <c r="Q31" s="13">
+        <v>31</v>
+      </c>
+      <c r="R31" s="13">
+        <v>31</v>
+      </c>
+      <c r="S31" s="13">
+        <v>31</v>
+      </c>
+      <c r="T31" s="13">
+        <v>31</v>
+      </c>
+      <c r="U31" s="13">
+        <v>31</v>
+      </c>
+      <c r="V31" s="13">
+        <v>31</v>
+      </c>
+      <c r="W31" s="13">
+        <v>31</v>
+      </c>
+      <c r="X31" s="13">
+        <v>31</v>
+      </c>
+      <c r="Y31" s="13">
+        <v>31</v>
+      </c>
+      <c r="Z31" s="13">
+        <v>31</v>
+      </c>
+      <c r="AA31" s="13">
+        <v>31</v>
+      </c>
+      <c r="AB31" s="13">
+        <v>31</v>
+      </c>
+      <c r="AC31" s="13">
+        <v>31</v>
+      </c>
+      <c r="AD31" s="13">
+        <v>31</v>
+      </c>
+      <c r="AE31" s="13">
+        <v>31</v>
+      </c>
+      <c r="AF31" s="13">
+        <v>31</v>
+      </c>
+      <c r="AG31" s="13">
+        <v>31</v>
+      </c>
+      <c r="AH31" s="13">
+        <v>31</v>
+      </c>
+      <c r="AI31" s="13">
+        <v>31</v>
+      </c>
+      <c r="AJ31" s="13">
+        <v>31</v>
+      </c>
+      <c r="AK31" s="13">
+        <v>31</v>
+      </c>
+      <c r="AL31" s="13">
+        <v>31</v>
+      </c>
+      <c r="AM31" s="13">
+        <v>31</v>
+      </c>
+      <c r="AN31" s="13">
+        <v>31</v>
+      </c>
+      <c r="AO31" s="13">
+        <v>31</v>
+      </c>
+      <c r="AP31" s="13">
+        <v>31</v>
+      </c>
+      <c r="AQ31" s="13">
+        <v>31</v>
+      </c>
+      <c r="AR31" s="13">
+        <v>31</v>
+      </c>
+      <c r="AS31" s="13">
+        <v>31</v>
+      </c>
+      <c r="AT31" s="13">
+        <v>31</v>
+      </c>
+      <c r="AU31" s="13">
+        <v>31</v>
+      </c>
+      <c r="AV31" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="A32" s="13">
+        <v>31</v>
+      </c>
+      <c r="B32" s="13">
+        <v>31</v>
+      </c>
+      <c r="C32" s="13">
+        <v>31</v>
+      </c>
+      <c r="D32" s="13">
+        <v>31</v>
+      </c>
+      <c r="E32" s="13">
+        <v>31</v>
+      </c>
+      <c r="F32" s="13">
+        <v>31</v>
+      </c>
+      <c r="G32" s="13">
+        <v>31</v>
+      </c>
+      <c r="H32" s="13">
+        <v>31</v>
+      </c>
+      <c r="I32" s="13">
+        <v>31</v>
+      </c>
+      <c r="J32" s="13">
+        <v>31</v>
+      </c>
+      <c r="K32" s="13">
+        <v>31</v>
+      </c>
+      <c r="L32" s="13">
+        <v>31</v>
+      </c>
+      <c r="M32" s="13">
+        <v>31</v>
+      </c>
+      <c r="N32" s="13">
+        <v>31</v>
+      </c>
+      <c r="O32" s="13">
+        <v>31</v>
+      </c>
+      <c r="P32" s="13">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>31</v>
+      </c>
+      <c r="R32" s="13">
+        <v>31</v>
+      </c>
+      <c r="S32" s="13">
+        <v>31</v>
+      </c>
+      <c r="T32" s="13">
+        <v>31</v>
+      </c>
+      <c r="U32" s="13">
+        <v>31</v>
+      </c>
+      <c r="V32" s="13">
+        <v>31</v>
+      </c>
+      <c r="W32" s="13">
+        <v>31</v>
+      </c>
+      <c r="X32" s="13">
+        <v>31</v>
+      </c>
+      <c r="Y32" s="13">
+        <v>31</v>
+      </c>
+      <c r="Z32" s="13">
+        <v>31</v>
+      </c>
+      <c r="AA32" s="13">
+        <v>31</v>
+      </c>
+      <c r="AB32" s="13">
+        <v>31</v>
+      </c>
+      <c r="AC32" s="13">
+        <v>31</v>
+      </c>
+      <c r="AD32" s="13">
+        <v>31</v>
+      </c>
+      <c r="AE32" s="13">
+        <v>31</v>
+      </c>
+      <c r="AF32" s="13">
+        <v>31</v>
+      </c>
+      <c r="AG32" s="13">
+        <v>31</v>
+      </c>
+      <c r="AH32" s="13">
+        <v>31</v>
+      </c>
+      <c r="AI32" s="13">
+        <v>31</v>
+      </c>
+      <c r="AJ32" s="13">
+        <v>31</v>
+      </c>
+      <c r="AK32" s="13">
+        <v>31</v>
+      </c>
+      <c r="AL32" s="13">
+        <v>31</v>
+      </c>
+      <c r="AM32" s="13">
+        <v>31</v>
+      </c>
+      <c r="AN32" s="13">
+        <v>31</v>
+      </c>
+      <c r="AO32" s="13">
+        <v>31</v>
+      </c>
+      <c r="AP32" s="13">
+        <v>31</v>
+      </c>
+      <c r="AQ32" s="13">
+        <v>31</v>
+      </c>
+      <c r="AR32" s="13">
+        <v>31</v>
+      </c>
+      <c r="AS32" s="13">
+        <v>31</v>
+      </c>
+      <c r="AT32" s="13">
+        <v>31</v>
+      </c>
+      <c r="AU32" s="13">
+        <v>31</v>
+      </c>
+      <c r="AV32" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="A33" s="13">
+        <v>31</v>
+      </c>
+      <c r="B33" s="13">
+        <v>31</v>
+      </c>
+      <c r="C33" s="13">
+        <v>31</v>
+      </c>
+      <c r="D33" s="13">
+        <v>31</v>
+      </c>
+      <c r="E33" s="13">
+        <v>31</v>
+      </c>
+      <c r="F33" s="13">
+        <v>31</v>
+      </c>
+      <c r="G33" s="13">
+        <v>31</v>
+      </c>
+      <c r="H33" s="13">
+        <v>31</v>
+      </c>
+      <c r="I33" s="13">
+        <v>31</v>
+      </c>
+      <c r="J33" s="13">
+        <v>31</v>
+      </c>
+      <c r="K33" s="13">
+        <v>31</v>
+      </c>
+      <c r="L33" s="13">
+        <v>31</v>
+      </c>
+      <c r="M33" s="13">
+        <v>31</v>
+      </c>
+      <c r="N33" s="13">
+        <v>31</v>
+      </c>
+      <c r="O33" s="13">
+        <v>31</v>
+      </c>
+      <c r="P33" s="13">
+        <v>31</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>31</v>
+      </c>
+      <c r="R33" s="13">
+        <v>31</v>
+      </c>
+      <c r="S33" s="13">
+        <v>31</v>
+      </c>
+      <c r="T33" s="13">
+        <v>31</v>
+      </c>
+      <c r="U33" s="13">
+        <v>31</v>
+      </c>
+      <c r="V33" s="13">
+        <v>31</v>
+      </c>
+      <c r="W33" s="13">
+        <v>31</v>
+      </c>
+      <c r="X33" s="13">
+        <v>31</v>
+      </c>
+      <c r="Y33" s="13">
+        <v>31</v>
+      </c>
+      <c r="Z33" s="13">
+        <v>31</v>
+      </c>
+      <c r="AA33" s="13">
+        <v>31</v>
+      </c>
+      <c r="AB33" s="13">
+        <v>31</v>
+      </c>
+      <c r="AC33" s="13">
+        <v>31</v>
+      </c>
+      <c r="AD33" s="13">
+        <v>31</v>
+      </c>
+      <c r="AE33" s="13">
+        <v>31</v>
+      </c>
+      <c r="AF33" s="13">
+        <v>31</v>
+      </c>
+      <c r="AG33" s="13">
+        <v>31</v>
+      </c>
+      <c r="AH33" s="13">
+        <v>31</v>
+      </c>
+      <c r="AI33" s="13">
+        <v>31</v>
+      </c>
+      <c r="AJ33" s="13">
+        <v>31</v>
+      </c>
+      <c r="AK33" s="13">
+        <v>31</v>
+      </c>
+      <c r="AL33" s="13">
+        <v>31</v>
+      </c>
+      <c r="AM33" s="13">
+        <v>31</v>
+      </c>
+      <c r="AN33" s="13">
+        <v>31</v>
+      </c>
+      <c r="AO33" s="13">
+        <v>31</v>
+      </c>
+      <c r="AP33" s="13">
+        <v>31</v>
+      </c>
+      <c r="AQ33" s="13">
+        <v>31</v>
+      </c>
+      <c r="AR33" s="13">
+        <v>31</v>
+      </c>
+      <c r="AS33" s="13">
+        <v>31</v>
+      </c>
+      <c r="AT33" s="13">
+        <v>31</v>
+      </c>
+      <c r="AU33" s="13">
+        <v>31</v>
+      </c>
+      <c r="AV33" s="13">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="AU1:BI2 AZ3:BI16 AU3:AY28 A29:AY41 A1:AT28">
+  <conditionalFormatting sqref="AW1:BI2 A1:AV28 AZ3:BI16 AW3:AY28 A29:AY41">
     <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>30</formula>
     </cfRule>

--- a/Excel/TitleStage.xlsx
+++ b/Excel/TitleStage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0F6905-B0E8-40ED-BAB2-AFFBE00AE301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15ABD03-2482-40C1-B337-3165A744AA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2988" yWindow="828" windowWidth="20052" windowHeight="11412" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -244,24 +244,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -299,9 +288,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -723,8 +709,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AV33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AW22" sqref="AW22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -859,19 +845,19 @@
       <c r="AP1" s="11">
         <v>0</v>
       </c>
-      <c r="AQ1" s="12">
-        <v>0</v>
-      </c>
-      <c r="AR1" s="12">
-        <v>0</v>
-      </c>
-      <c r="AS1" s="12">
-        <v>0</v>
-      </c>
-      <c r="AT1" s="12">
-        <v>0</v>
-      </c>
-      <c r="AU1" s="12">
+      <c r="AQ1" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR1" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS1" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT1" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU1" s="11">
         <v>0</v>
       </c>
       <c r="AV1" s="12">
@@ -1005,19 +991,19 @@
       <c r="AP2" s="7">
         <v>30</v>
       </c>
-      <c r="AQ2" s="9">
+      <c r="AQ2" s="7">
         <v>30</v>
       </c>
-      <c r="AR2" s="9">
+      <c r="AR2" s="7">
         <v>30</v>
       </c>
-      <c r="AS2" s="9">
+      <c r="AS2" s="7">
         <v>30</v>
       </c>
-      <c r="AT2" s="9">
+      <c r="AT2" s="7">
         <v>30</v>
       </c>
-      <c r="AU2" s="9">
+      <c r="AU2" s="7">
         <v>30</v>
       </c>
       <c r="AV2" s="9">
@@ -1151,19 +1137,19 @@
       <c r="AP3" s="1">
         <v>30</v>
       </c>
-      <c r="AQ3" s="3">
+      <c r="AQ3" s="1">
         <v>30</v>
       </c>
-      <c r="AR3" s="3">
+      <c r="AR3" s="1">
         <v>30</v>
       </c>
-      <c r="AS3" s="3">
+      <c r="AS3" s="1">
         <v>30</v>
       </c>
-      <c r="AT3" s="3">
+      <c r="AT3" s="1">
         <v>30</v>
       </c>
-      <c r="AU3" s="3">
+      <c r="AU3" s="1">
         <v>30</v>
       </c>
       <c r="AV3" s="3">
@@ -1297,19 +1283,19 @@
       <c r="AP4" s="1">
         <v>30</v>
       </c>
-      <c r="AQ4" s="3">
+      <c r="AQ4" s="1">
         <v>30</v>
       </c>
-      <c r="AR4" s="3">
+      <c r="AR4" s="1">
         <v>30</v>
       </c>
-      <c r="AS4" s="3">
+      <c r="AS4" s="1">
         <v>30</v>
       </c>
-      <c r="AT4" s="3">
+      <c r="AT4" s="1">
         <v>30</v>
       </c>
-      <c r="AU4" s="3">
+      <c r="AU4" s="1">
         <v>30</v>
       </c>
       <c r="AV4" s="3">
@@ -1443,19 +1429,19 @@
       <c r="AP5" s="1">
         <v>30</v>
       </c>
-      <c r="AQ5" s="3">
+      <c r="AQ5" s="1">
         <v>30</v>
       </c>
-      <c r="AR5" s="3">
+      <c r="AR5" s="1">
         <v>30</v>
       </c>
-      <c r="AS5" s="3">
+      <c r="AS5" s="1">
         <v>30</v>
       </c>
-      <c r="AT5" s="3">
+      <c r="AT5" s="1">
         <v>30</v>
       </c>
-      <c r="AU5" s="3">
+      <c r="AU5" s="1">
         <v>30</v>
       </c>
       <c r="AV5" s="3">
@@ -1589,19 +1575,19 @@
       <c r="AP6" s="1">
         <v>20</v>
       </c>
-      <c r="AQ6" s="3">
+      <c r="AQ6" s="1">
         <v>30</v>
       </c>
-      <c r="AR6" s="3">
+      <c r="AR6" s="1">
         <v>30</v>
       </c>
-      <c r="AS6" s="3">
+      <c r="AS6" s="1">
         <v>30</v>
       </c>
-      <c r="AT6" s="3">
+      <c r="AT6" s="1">
         <v>30</v>
       </c>
-      <c r="AU6" s="3">
+      <c r="AU6" s="1">
         <v>30</v>
       </c>
       <c r="AV6" s="3">
@@ -1735,19 +1721,19 @@
       <c r="AP7" s="1">
         <v>20</v>
       </c>
-      <c r="AQ7" s="3">
-        <v>20</v>
-      </c>
-      <c r="AR7" s="3">
-        <v>20</v>
-      </c>
-      <c r="AS7" s="3">
-        <v>20</v>
-      </c>
-      <c r="AT7" s="3">
-        <v>20</v>
-      </c>
-      <c r="AU7" s="3">
+      <c r="AQ7" s="1">
+        <v>20</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>20</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>20</v>
+      </c>
+      <c r="AU7" s="1">
         <v>20</v>
       </c>
       <c r="AV7" s="3">
@@ -1881,19 +1867,19 @@
       <c r="AP8" s="1">
         <v>31</v>
       </c>
-      <c r="AQ8" s="3">
-        <v>20</v>
-      </c>
-      <c r="AR8" s="3">
-        <v>20</v>
-      </c>
-      <c r="AS8" s="3">
-        <v>20</v>
-      </c>
-      <c r="AT8" s="3">
-        <v>20</v>
-      </c>
-      <c r="AU8" s="3">
+      <c r="AQ8" s="1">
+        <v>20</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>20</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>20</v>
+      </c>
+      <c r="AU8" s="1">
         <v>20</v>
       </c>
       <c r="AV8" s="3">
@@ -2027,19 +2013,19 @@
       <c r="AP9" s="1">
         <v>31</v>
       </c>
-      <c r="AQ9" s="3">
-        <v>31</v>
-      </c>
-      <c r="AR9" s="3">
-        <v>31</v>
-      </c>
-      <c r="AS9" s="3">
-        <v>31</v>
-      </c>
-      <c r="AT9" s="3">
-        <v>31</v>
-      </c>
-      <c r="AU9" s="3">
+      <c r="AQ9" s="1">
+        <v>31</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>31</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>31</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>31</v>
+      </c>
+      <c r="AU9" s="1">
         <v>31</v>
       </c>
       <c r="AV9" s="3">
@@ -2173,19 +2159,19 @@
       <c r="AP10" s="1">
         <v>31</v>
       </c>
-      <c r="AQ10" s="3">
-        <v>31</v>
-      </c>
-      <c r="AR10" s="3">
-        <v>31</v>
-      </c>
-      <c r="AS10" s="3">
-        <v>31</v>
-      </c>
-      <c r="AT10" s="3">
-        <v>31</v>
-      </c>
-      <c r="AU10" s="3">
+      <c r="AQ10" s="1">
+        <v>31</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>31</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>31</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>31</v>
+      </c>
+      <c r="AU10" s="1">
         <v>31</v>
       </c>
       <c r="AV10" s="3">
@@ -2319,19 +2305,19 @@
       <c r="AP11" s="1">
         <v>31</v>
       </c>
-      <c r="AQ11" s="3">
-        <v>31</v>
-      </c>
-      <c r="AR11" s="3">
-        <v>31</v>
-      </c>
-      <c r="AS11" s="3">
-        <v>31</v>
-      </c>
-      <c r="AT11" s="3">
-        <v>31</v>
-      </c>
-      <c r="AU11" s="3">
+      <c r="AQ11" s="1">
+        <v>31</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>31</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>31</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>31</v>
+      </c>
+      <c r="AU11" s="1">
         <v>31</v>
       </c>
       <c r="AV11" s="3">
@@ -2465,19 +2451,19 @@
       <c r="AP12" s="1">
         <v>31</v>
       </c>
-      <c r="AQ12" s="3">
-        <v>31</v>
-      </c>
-      <c r="AR12" s="3">
-        <v>31</v>
-      </c>
-      <c r="AS12" s="3">
-        <v>31</v>
-      </c>
-      <c r="AT12" s="3">
-        <v>31</v>
-      </c>
-      <c r="AU12" s="3">
+      <c r="AQ12" s="1">
+        <v>31</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>31</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>31</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>31</v>
+      </c>
+      <c r="AU12" s="1">
         <v>31</v>
       </c>
       <c r="AV12" s="3">
@@ -2611,19 +2597,19 @@
       <c r="AP13" s="1">
         <v>31</v>
       </c>
-      <c r="AQ13" s="3">
-        <v>31</v>
-      </c>
-      <c r="AR13" s="3">
-        <v>31</v>
-      </c>
-      <c r="AS13" s="3">
-        <v>31</v>
-      </c>
-      <c r="AT13" s="3">
-        <v>31</v>
-      </c>
-      <c r="AU13" s="3">
+      <c r="AQ13" s="1">
+        <v>31</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>31</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>31</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>31</v>
+      </c>
+      <c r="AU13" s="1">
         <v>31</v>
       </c>
       <c r="AV13" s="3">
@@ -2757,19 +2743,19 @@
       <c r="AP14" s="1">
         <v>31</v>
       </c>
-      <c r="AQ14" s="3">
-        <v>31</v>
-      </c>
-      <c r="AR14" s="3">
-        <v>31</v>
-      </c>
-      <c r="AS14" s="3">
-        <v>31</v>
-      </c>
-      <c r="AT14" s="3">
-        <v>31</v>
-      </c>
-      <c r="AU14" s="3">
+      <c r="AQ14" s="1">
+        <v>31</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>31</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>31</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>31</v>
+      </c>
+      <c r="AU14" s="1">
         <v>31</v>
       </c>
       <c r="AV14" s="3">
@@ -2903,19 +2889,19 @@
       <c r="AP15" s="1">
         <v>0</v>
       </c>
-      <c r="AQ15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="3">
+      <c r="AQ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="1">
         <v>0</v>
       </c>
       <c r="AV15" s="3">
@@ -3049,19 +3035,19 @@
       <c r="AP16" s="1">
         <v>0</v>
       </c>
-      <c r="AQ16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="3">
+      <c r="AQ16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="1">
         <v>0</v>
       </c>
       <c r="AV16" s="3">
@@ -3085,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -3106,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N17" s="1">
         <v>0</v>
@@ -3195,19 +3181,19 @@
       <c r="AP17" s="1">
         <v>0</v>
       </c>
-      <c r="AQ17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU17" s="3">
+      <c r="AQ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="1">
         <v>0</v>
       </c>
       <c r="AV17" s="3">
@@ -3231,17 +3217,17 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
         <v>13</v>
       </c>
-      <c r="G18" s="1">
-        <v>13</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
       <c r="J18" s="1">
         <v>0</v>
       </c>
@@ -3267,13 +3253,13 @@
         <v>0</v>
       </c>
       <c r="R18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="S18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="T18" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="U18" s="1">
         <v>0</v>
@@ -3341,19 +3327,19 @@
       <c r="AP18" s="1">
         <v>0</v>
       </c>
-      <c r="AQ18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU18" s="3">
+      <c r="AQ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="1">
         <v>0</v>
       </c>
       <c r="AV18" s="3">
@@ -3377,17 +3363,17 @@
         <v>0</v>
       </c>
       <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
         <v>13</v>
       </c>
-      <c r="G19" s="1">
-        <v>13</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
       <c r="J19" s="1">
         <v>0</v>
       </c>
@@ -3487,19 +3473,19 @@
       <c r="AP19" s="1">
         <v>0</v>
       </c>
-      <c r="AQ19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU19" s="3">
+      <c r="AQ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="1">
         <v>0</v>
       </c>
       <c r="AV19" s="3">
@@ -3523,20 +3509,20 @@
         <v>0</v>
       </c>
       <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
         <v>13</v>
       </c>
-      <c r="G20" s="1">
+      <c r="J20" s="1">
         <v>13</v>
       </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
       <c r="K20" s="1">
         <v>0</v>
       </c>
@@ -3633,19 +3619,19 @@
       <c r="AP20" s="1">
         <v>0</v>
       </c>
-      <c r="AQ20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU20" s="3">
+      <c r="AQ20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="1">
         <v>0</v>
       </c>
       <c r="AV20" s="3">
@@ -3666,25 +3652,25 @@
         <v>31</v>
       </c>
       <c r="E21" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I21" s="1">
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K21" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" s="1">
         <v>0</v>
@@ -3779,19 +3765,19 @@
       <c r="AP21" s="1">
         <v>0</v>
       </c>
-      <c r="AQ21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU21" s="3">
+      <c r="AQ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="1">
         <v>0</v>
       </c>
       <c r="AV21" s="3">
@@ -3812,28 +3798,28 @@
         <v>31</v>
       </c>
       <c r="E22" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I22" s="1">
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L22" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -3925,19 +3911,19 @@
       <c r="AP22" s="1">
         <v>6</v>
       </c>
-      <c r="AQ22" s="3">
+      <c r="AQ22" s="1">
         <v>6</v>
       </c>
-      <c r="AR22" s="3">
+      <c r="AR22" s="1">
         <v>6</v>
       </c>
-      <c r="AS22" s="3">
+      <c r="AS22" s="1">
         <v>6</v>
       </c>
-      <c r="AT22" s="3">
+      <c r="AT22" s="1">
         <v>6</v>
       </c>
-      <c r="AU22" s="3">
+      <c r="AU22" s="1">
         <v>6</v>
       </c>
       <c r="AV22" s="3">
@@ -3958,13 +3944,13 @@
         <v>31</v>
       </c>
       <c r="E23" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -3976,13 +3962,13 @@
         <v>10</v>
       </c>
       <c r="K23" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L23" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M23" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N23" s="1">
         <v>0</v>
@@ -4071,19 +4057,19 @@
       <c r="AP23" s="1">
         <v>0</v>
       </c>
-      <c r="AQ23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU23" s="3">
+      <c r="AQ23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="1">
         <v>0</v>
       </c>
       <c r="AV23" s="3">
@@ -4104,34 +4090,34 @@
         <v>31</v>
       </c>
       <c r="E24" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
       </c>
       <c r="I24" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J24" s="1">
         <v>10</v>
       </c>
       <c r="K24" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L24" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M24" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N24" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O24" s="1">
         <v>0</v>
@@ -4217,19 +4203,19 @@
       <c r="AP24" s="1">
         <v>0</v>
       </c>
-      <c r="AQ24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU24" s="3">
+      <c r="AQ24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="1">
         <v>0</v>
       </c>
       <c r="AV24" s="3">
@@ -4250,25 +4236,25 @@
         <v>31</v>
       </c>
       <c r="E25" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
       </c>
       <c r="J25" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K25" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L25" s="1">
         <v>0</v>
@@ -4277,16 +4263,16 @@
         <v>0</v>
       </c>
       <c r="N25" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O25" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="R25" s="1">
         <v>0</v>
@@ -4363,19 +4349,19 @@
       <c r="AP25" s="1">
         <v>31</v>
       </c>
-      <c r="AQ25" s="3">
-        <v>31</v>
-      </c>
-      <c r="AR25" s="3">
-        <v>31</v>
-      </c>
-      <c r="AS25" s="3">
-        <v>31</v>
-      </c>
-      <c r="AT25" s="3">
-        <v>31</v>
-      </c>
-      <c r="AU25" s="3">
+      <c r="AQ25" s="1">
+        <v>31</v>
+      </c>
+      <c r="AR25" s="1">
+        <v>31</v>
+      </c>
+      <c r="AS25" s="1">
+        <v>31</v>
+      </c>
+      <c r="AT25" s="1">
+        <v>31</v>
+      </c>
+      <c r="AU25" s="1">
         <v>31</v>
       </c>
       <c r="AV25" s="3">
@@ -4396,16 +4382,16 @@
         <v>31</v>
       </c>
       <c r="E26" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
@@ -4414,22 +4400,22 @@
         <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L26" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M26" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N26" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O26" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="1">
         <v>0</v>
@@ -4509,19 +4495,19 @@
       <c r="AP26" s="1">
         <v>31</v>
       </c>
-      <c r="AQ26" s="3">
-        <v>31</v>
-      </c>
-      <c r="AR26" s="3">
-        <v>31</v>
-      </c>
-      <c r="AS26" s="3">
-        <v>31</v>
-      </c>
-      <c r="AT26" s="3">
-        <v>31</v>
-      </c>
-      <c r="AU26" s="3">
+      <c r="AQ26" s="1">
+        <v>31</v>
+      </c>
+      <c r="AR26" s="1">
+        <v>31</v>
+      </c>
+      <c r="AS26" s="1">
+        <v>31</v>
+      </c>
+      <c r="AT26" s="1">
+        <v>31</v>
+      </c>
+      <c r="AU26" s="1">
         <v>31</v>
       </c>
       <c r="AV26" s="3">
@@ -4542,28 +4528,28 @@
         <v>31</v>
       </c>
       <c r="E27" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J27" s="1">
         <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L27" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -4655,904 +4641,904 @@
       <c r="AP27" s="1">
         <v>31</v>
       </c>
-      <c r="AQ27" s="3">
-        <v>31</v>
-      </c>
-      <c r="AR27" s="3">
-        <v>31</v>
-      </c>
-      <c r="AS27" s="3">
-        <v>31</v>
-      </c>
-      <c r="AT27" s="3">
-        <v>31</v>
-      </c>
-      <c r="AU27" s="3">
+      <c r="AQ27" s="1">
+        <v>31</v>
+      </c>
+      <c r="AR27" s="1">
+        <v>31</v>
+      </c>
+      <c r="AS27" s="1">
+        <v>31</v>
+      </c>
+      <c r="AT27" s="1">
+        <v>31</v>
+      </c>
+      <c r="AU27" s="1">
         <v>31</v>
       </c>
       <c r="AV27" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:48" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="4">
-        <v>20</v>
-      </c>
-      <c r="B28" s="5">
-        <v>20</v>
-      </c>
-      <c r="C28" s="5">
-        <v>20</v>
-      </c>
-      <c r="D28" s="5">
-        <v>20</v>
-      </c>
-      <c r="E28" s="5">
-        <v>20</v>
-      </c>
-      <c r="F28" s="5">
-        <v>20</v>
-      </c>
-      <c r="G28" s="5">
-        <v>20</v>
-      </c>
-      <c r="H28" s="5">
-        <v>20</v>
-      </c>
-      <c r="I28" s="5">
-        <v>20</v>
-      </c>
-      <c r="J28" s="5">
-        <v>20</v>
-      </c>
-      <c r="K28" s="5">
-        <v>20</v>
-      </c>
-      <c r="L28" s="5">
-        <v>20</v>
-      </c>
-      <c r="M28" s="5">
-        <v>20</v>
-      </c>
-      <c r="N28" s="5">
-        <v>20</v>
-      </c>
-      <c r="O28" s="5">
-        <v>20</v>
-      </c>
-      <c r="P28" s="5">
-        <v>20</v>
-      </c>
-      <c r="Q28" s="5">
-        <v>20</v>
-      </c>
-      <c r="R28" s="5">
-        <v>20</v>
-      </c>
-      <c r="S28" s="5">
-        <v>20</v>
-      </c>
-      <c r="T28" s="5">
-        <v>20</v>
-      </c>
-      <c r="U28" s="5">
-        <v>20</v>
-      </c>
-      <c r="V28" s="5">
-        <v>20</v>
-      </c>
-      <c r="W28" s="5">
-        <v>20</v>
-      </c>
-      <c r="X28" s="5">
-        <v>20</v>
-      </c>
-      <c r="Y28" s="5">
-        <v>20</v>
-      </c>
-      <c r="Z28" s="5">
-        <v>20</v>
-      </c>
-      <c r="AA28" s="5">
-        <v>20</v>
-      </c>
-      <c r="AB28" s="5">
-        <v>20</v>
-      </c>
-      <c r="AC28" s="5">
-        <v>20</v>
-      </c>
-      <c r="AD28" s="5">
-        <v>20</v>
-      </c>
-      <c r="AE28" s="5">
-        <v>20</v>
-      </c>
-      <c r="AF28" s="5">
-        <v>20</v>
-      </c>
-      <c r="AG28" s="5">
-        <v>20</v>
-      </c>
-      <c r="AH28" s="5">
-        <v>20</v>
-      </c>
-      <c r="AI28" s="5">
-        <v>20</v>
-      </c>
-      <c r="AJ28" s="5">
-        <v>20</v>
-      </c>
-      <c r="AK28" s="5">
-        <v>20</v>
-      </c>
-      <c r="AL28" s="5">
-        <v>20</v>
-      </c>
-      <c r="AM28" s="5">
-        <v>20</v>
-      </c>
-      <c r="AN28" s="5">
-        <v>20</v>
-      </c>
-      <c r="AO28" s="5">
-        <v>20</v>
-      </c>
-      <c r="AP28" s="5">
-        <v>20</v>
-      </c>
-      <c r="AQ28" s="8">
-        <v>20</v>
-      </c>
-      <c r="AR28" s="8">
-        <v>20</v>
-      </c>
-      <c r="AS28" s="8">
-        <v>20</v>
-      </c>
-      <c r="AT28" s="8">
-        <v>20</v>
-      </c>
-      <c r="AU28" s="8">
-        <v>20</v>
-      </c>
-      <c r="AV28" s="8">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="A28" s="2">
+        <v>20</v>
+      </c>
+      <c r="B28" s="1">
+        <v>20</v>
+      </c>
+      <c r="C28" s="1">
+        <v>20</v>
+      </c>
+      <c r="D28" s="1">
+        <v>20</v>
+      </c>
+      <c r="E28" s="1">
+        <v>20</v>
+      </c>
+      <c r="F28" s="1">
+        <v>20</v>
+      </c>
+      <c r="G28" s="1">
+        <v>20</v>
+      </c>
+      <c r="H28" s="1">
+        <v>20</v>
+      </c>
+      <c r="I28" s="1">
+        <v>20</v>
+      </c>
+      <c r="J28" s="1">
+        <v>20</v>
+      </c>
+      <c r="K28" s="1">
+        <v>20</v>
+      </c>
+      <c r="L28" s="1">
+        <v>20</v>
+      </c>
+      <c r="M28" s="1">
+        <v>20</v>
+      </c>
+      <c r="N28" s="1">
+        <v>20</v>
+      </c>
+      <c r="O28" s="1">
+        <v>20</v>
+      </c>
+      <c r="P28" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>20</v>
+      </c>
+      <c r="R28" s="1">
+        <v>20</v>
+      </c>
+      <c r="S28" s="1">
+        <v>20</v>
+      </c>
+      <c r="T28" s="1">
+        <v>20</v>
+      </c>
+      <c r="U28" s="1">
+        <v>20</v>
+      </c>
+      <c r="V28" s="1">
+        <v>20</v>
+      </c>
+      <c r="W28" s="1">
+        <v>20</v>
+      </c>
+      <c r="X28" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>20</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>20</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>20</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>20</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>20</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>20</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>20</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>20</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>20</v>
+      </c>
+      <c r="AI28" s="1">
+        <v>20</v>
+      </c>
+      <c r="AJ28" s="1">
+        <v>20</v>
+      </c>
+      <c r="AK28" s="1">
+        <v>20</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>20</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>20</v>
+      </c>
+      <c r="AN28" s="1">
+        <v>20</v>
+      </c>
+      <c r="AO28" s="1">
+        <v>20</v>
+      </c>
+      <c r="AP28" s="1">
+        <v>20</v>
+      </c>
+      <c r="AQ28" s="1">
+        <v>20</v>
+      </c>
+      <c r="AR28" s="1">
+        <v>20</v>
+      </c>
+      <c r="AS28" s="1">
+        <v>20</v>
+      </c>
+      <c r="AT28" s="1">
+        <v>20</v>
+      </c>
+      <c r="AU28" s="1">
+        <v>20</v>
+      </c>
+      <c r="AV28" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A29" s="13">
-        <v>31</v>
-      </c>
-      <c r="B29" s="13">
-        <v>31</v>
-      </c>
-      <c r="C29" s="13">
-        <v>31</v>
-      </c>
-      <c r="D29" s="13">
-        <v>31</v>
-      </c>
-      <c r="E29" s="13">
-        <v>31</v>
-      </c>
-      <c r="F29" s="13">
-        <v>31</v>
-      </c>
-      <c r="G29" s="13">
-        <v>31</v>
-      </c>
-      <c r="H29" s="13">
-        <v>31</v>
-      </c>
-      <c r="I29" s="13">
-        <v>31</v>
-      </c>
-      <c r="J29" s="13">
-        <v>31</v>
-      </c>
-      <c r="K29" s="13">
-        <v>31</v>
-      </c>
-      <c r="L29" s="13">
-        <v>31</v>
-      </c>
-      <c r="M29" s="13">
-        <v>31</v>
-      </c>
-      <c r="N29" s="13">
-        <v>31</v>
-      </c>
-      <c r="O29" s="13">
-        <v>31</v>
-      </c>
-      <c r="P29" s="13">
-        <v>31</v>
-      </c>
-      <c r="Q29" s="13">
-        <v>31</v>
-      </c>
-      <c r="R29" s="13">
-        <v>31</v>
-      </c>
-      <c r="S29" s="13">
-        <v>31</v>
-      </c>
-      <c r="T29" s="13">
-        <v>31</v>
-      </c>
-      <c r="U29" s="13">
-        <v>31</v>
-      </c>
-      <c r="V29" s="13">
-        <v>31</v>
-      </c>
-      <c r="W29" s="13">
-        <v>31</v>
-      </c>
-      <c r="X29" s="13">
-        <v>31</v>
-      </c>
-      <c r="Y29" s="13">
-        <v>31</v>
-      </c>
-      <c r="Z29" s="13">
-        <v>31</v>
-      </c>
-      <c r="AA29" s="13">
-        <v>31</v>
-      </c>
-      <c r="AB29" s="13">
-        <v>31</v>
-      </c>
-      <c r="AC29" s="13">
-        <v>31</v>
-      </c>
-      <c r="AD29" s="13">
-        <v>31</v>
-      </c>
-      <c r="AE29" s="13">
-        <v>31</v>
-      </c>
-      <c r="AF29" s="13">
-        <v>31</v>
-      </c>
-      <c r="AG29" s="13">
-        <v>31</v>
-      </c>
-      <c r="AH29" s="13">
-        <v>31</v>
-      </c>
-      <c r="AI29" s="13">
-        <v>31</v>
-      </c>
-      <c r="AJ29" s="13">
-        <v>31</v>
-      </c>
-      <c r="AK29" s="13">
-        <v>31</v>
-      </c>
-      <c r="AL29" s="13">
-        <v>31</v>
-      </c>
-      <c r="AM29" s="13">
-        <v>31</v>
-      </c>
-      <c r="AN29" s="13">
-        <v>31</v>
-      </c>
-      <c r="AO29" s="13">
-        <v>31</v>
-      </c>
-      <c r="AP29" s="13">
-        <v>31</v>
-      </c>
-      <c r="AQ29" s="13">
-        <v>31</v>
-      </c>
-      <c r="AR29" s="13">
-        <v>31</v>
-      </c>
-      <c r="AS29" s="13">
-        <v>31</v>
-      </c>
-      <c r="AT29" s="13">
-        <v>31</v>
-      </c>
-      <c r="AU29" s="13">
-        <v>31</v>
-      </c>
-      <c r="AV29" s="13">
+      <c r="A29" s="2">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1">
+        <v>31</v>
+      </c>
+      <c r="C29" s="1">
+        <v>31</v>
+      </c>
+      <c r="D29" s="1">
+        <v>31</v>
+      </c>
+      <c r="E29" s="1">
+        <v>31</v>
+      </c>
+      <c r="F29" s="1">
+        <v>31</v>
+      </c>
+      <c r="G29" s="1">
+        <v>31</v>
+      </c>
+      <c r="H29" s="1">
+        <v>31</v>
+      </c>
+      <c r="I29" s="1">
+        <v>31</v>
+      </c>
+      <c r="J29" s="1">
+        <v>31</v>
+      </c>
+      <c r="K29" s="1">
+        <v>31</v>
+      </c>
+      <c r="L29" s="1">
+        <v>31</v>
+      </c>
+      <c r="M29" s="1">
+        <v>31</v>
+      </c>
+      <c r="N29" s="1">
+        <v>31</v>
+      </c>
+      <c r="O29" s="1">
+        <v>31</v>
+      </c>
+      <c r="P29" s="1">
+        <v>31</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>31</v>
+      </c>
+      <c r="R29" s="1">
+        <v>31</v>
+      </c>
+      <c r="S29" s="1">
+        <v>31</v>
+      </c>
+      <c r="T29" s="1">
+        <v>31</v>
+      </c>
+      <c r="U29" s="1">
+        <v>31</v>
+      </c>
+      <c r="V29" s="1">
+        <v>31</v>
+      </c>
+      <c r="W29" s="1">
+        <v>31</v>
+      </c>
+      <c r="X29" s="1">
+        <v>31</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>31</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>31</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>31</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>31</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>31</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>31</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>31</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>31</v>
+      </c>
+      <c r="AI29" s="1">
+        <v>31</v>
+      </c>
+      <c r="AJ29" s="1">
+        <v>31</v>
+      </c>
+      <c r="AK29" s="1">
+        <v>31</v>
+      </c>
+      <c r="AL29" s="1">
+        <v>31</v>
+      </c>
+      <c r="AM29" s="1">
+        <v>31</v>
+      </c>
+      <c r="AN29" s="1">
+        <v>31</v>
+      </c>
+      <c r="AO29" s="1">
+        <v>31</v>
+      </c>
+      <c r="AP29" s="1">
+        <v>31</v>
+      </c>
+      <c r="AQ29" s="1">
+        <v>31</v>
+      </c>
+      <c r="AR29" s="1">
+        <v>31</v>
+      </c>
+      <c r="AS29" s="1">
+        <v>31</v>
+      </c>
+      <c r="AT29" s="1">
+        <v>31</v>
+      </c>
+      <c r="AU29" s="1">
+        <v>31</v>
+      </c>
+      <c r="AV29" s="3">
         <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A30" s="13">
-        <v>31</v>
-      </c>
-      <c r="B30" s="13">
-        <v>31</v>
-      </c>
-      <c r="C30" s="13">
-        <v>31</v>
-      </c>
-      <c r="D30" s="13">
-        <v>31</v>
-      </c>
-      <c r="E30" s="13">
-        <v>31</v>
-      </c>
-      <c r="F30" s="13">
-        <v>31</v>
-      </c>
-      <c r="G30" s="13">
-        <v>31</v>
-      </c>
-      <c r="H30" s="13">
-        <v>31</v>
-      </c>
-      <c r="I30" s="13">
-        <v>31</v>
-      </c>
-      <c r="J30" s="13">
-        <v>31</v>
-      </c>
-      <c r="K30" s="13">
-        <v>31</v>
-      </c>
-      <c r="L30" s="13">
-        <v>31</v>
-      </c>
-      <c r="M30" s="13">
-        <v>31</v>
-      </c>
-      <c r="N30" s="13">
-        <v>31</v>
-      </c>
-      <c r="O30" s="13">
-        <v>31</v>
-      </c>
-      <c r="P30" s="13">
-        <v>31</v>
-      </c>
-      <c r="Q30" s="13">
-        <v>31</v>
-      </c>
-      <c r="R30" s="13">
-        <v>31</v>
-      </c>
-      <c r="S30" s="13">
-        <v>31</v>
-      </c>
-      <c r="T30" s="13">
-        <v>31</v>
-      </c>
-      <c r="U30" s="13">
-        <v>31</v>
-      </c>
-      <c r="V30" s="13">
-        <v>31</v>
-      </c>
-      <c r="W30" s="13">
-        <v>31</v>
-      </c>
-      <c r="X30" s="13">
-        <v>31</v>
-      </c>
-      <c r="Y30" s="13">
-        <v>31</v>
-      </c>
-      <c r="Z30" s="13">
-        <v>31</v>
-      </c>
-      <c r="AA30" s="13">
-        <v>31</v>
-      </c>
-      <c r="AB30" s="13">
-        <v>31</v>
-      </c>
-      <c r="AC30" s="13">
-        <v>31</v>
-      </c>
-      <c r="AD30" s="13">
-        <v>31</v>
-      </c>
-      <c r="AE30" s="13">
-        <v>31</v>
-      </c>
-      <c r="AF30" s="13">
-        <v>31</v>
-      </c>
-      <c r="AG30" s="13">
-        <v>31</v>
-      </c>
-      <c r="AH30" s="13">
-        <v>31</v>
-      </c>
-      <c r="AI30" s="13">
-        <v>31</v>
-      </c>
-      <c r="AJ30" s="13">
-        <v>31</v>
-      </c>
-      <c r="AK30" s="13">
-        <v>31</v>
-      </c>
-      <c r="AL30" s="13">
-        <v>31</v>
-      </c>
-      <c r="AM30" s="13">
-        <v>31</v>
-      </c>
-      <c r="AN30" s="13">
-        <v>31</v>
-      </c>
-      <c r="AO30" s="13">
-        <v>31</v>
-      </c>
-      <c r="AP30" s="13">
-        <v>31</v>
-      </c>
-      <c r="AQ30" s="13">
-        <v>31</v>
-      </c>
-      <c r="AR30" s="13">
-        <v>31</v>
-      </c>
-      <c r="AS30" s="13">
-        <v>31</v>
-      </c>
-      <c r="AT30" s="13">
-        <v>31</v>
-      </c>
-      <c r="AU30" s="13">
-        <v>31</v>
-      </c>
-      <c r="AV30" s="13">
+      <c r="A30" s="2">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1">
+        <v>31</v>
+      </c>
+      <c r="C30" s="1">
+        <v>31</v>
+      </c>
+      <c r="D30" s="1">
+        <v>31</v>
+      </c>
+      <c r="E30" s="1">
+        <v>31</v>
+      </c>
+      <c r="F30" s="1">
+        <v>31</v>
+      </c>
+      <c r="G30" s="1">
+        <v>31</v>
+      </c>
+      <c r="H30" s="1">
+        <v>31</v>
+      </c>
+      <c r="I30" s="1">
+        <v>31</v>
+      </c>
+      <c r="J30" s="1">
+        <v>31</v>
+      </c>
+      <c r="K30" s="1">
+        <v>31</v>
+      </c>
+      <c r="L30" s="1">
+        <v>31</v>
+      </c>
+      <c r="M30" s="1">
+        <v>31</v>
+      </c>
+      <c r="N30" s="1">
+        <v>31</v>
+      </c>
+      <c r="O30" s="1">
+        <v>31</v>
+      </c>
+      <c r="P30" s="1">
+        <v>31</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>31</v>
+      </c>
+      <c r="R30" s="1">
+        <v>31</v>
+      </c>
+      <c r="S30" s="1">
+        <v>31</v>
+      </c>
+      <c r="T30" s="1">
+        <v>31</v>
+      </c>
+      <c r="U30" s="1">
+        <v>31</v>
+      </c>
+      <c r="V30" s="1">
+        <v>31</v>
+      </c>
+      <c r="W30" s="1">
+        <v>31</v>
+      </c>
+      <c r="X30" s="1">
+        <v>31</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>31</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>31</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>31</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>31</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>31</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>31</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>31</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>31</v>
+      </c>
+      <c r="AI30" s="1">
+        <v>31</v>
+      </c>
+      <c r="AJ30" s="1">
+        <v>31</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>31</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>31</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>31</v>
+      </c>
+      <c r="AN30" s="1">
+        <v>31</v>
+      </c>
+      <c r="AO30" s="1">
+        <v>31</v>
+      </c>
+      <c r="AP30" s="1">
+        <v>31</v>
+      </c>
+      <c r="AQ30" s="1">
+        <v>31</v>
+      </c>
+      <c r="AR30" s="1">
+        <v>31</v>
+      </c>
+      <c r="AS30" s="1">
+        <v>31</v>
+      </c>
+      <c r="AT30" s="1">
+        <v>31</v>
+      </c>
+      <c r="AU30" s="1">
+        <v>31</v>
+      </c>
+      <c r="AV30" s="3">
         <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A31" s="13">
-        <v>31</v>
-      </c>
-      <c r="B31" s="13">
-        <v>31</v>
-      </c>
-      <c r="C31" s="13">
-        <v>31</v>
-      </c>
-      <c r="D31" s="13">
-        <v>31</v>
-      </c>
-      <c r="E31" s="13">
-        <v>31</v>
-      </c>
-      <c r="F31" s="13">
-        <v>31</v>
-      </c>
-      <c r="G31" s="13">
-        <v>31</v>
-      </c>
-      <c r="H31" s="13">
-        <v>31</v>
-      </c>
-      <c r="I31" s="13">
-        <v>31</v>
-      </c>
-      <c r="J31" s="13">
-        <v>31</v>
-      </c>
-      <c r="K31" s="13">
-        <v>31</v>
-      </c>
-      <c r="L31" s="13">
-        <v>31</v>
-      </c>
-      <c r="M31" s="13">
-        <v>31</v>
-      </c>
-      <c r="N31" s="13">
-        <v>31</v>
-      </c>
-      <c r="O31" s="13">
-        <v>31</v>
-      </c>
-      <c r="P31" s="13">
-        <v>31</v>
-      </c>
-      <c r="Q31" s="13">
-        <v>31</v>
-      </c>
-      <c r="R31" s="13">
-        <v>31</v>
-      </c>
-      <c r="S31" s="13">
-        <v>31</v>
-      </c>
-      <c r="T31" s="13">
-        <v>31</v>
-      </c>
-      <c r="U31" s="13">
-        <v>31</v>
-      </c>
-      <c r="V31" s="13">
-        <v>31</v>
-      </c>
-      <c r="W31" s="13">
-        <v>31</v>
-      </c>
-      <c r="X31" s="13">
-        <v>31</v>
-      </c>
-      <c r="Y31" s="13">
-        <v>31</v>
-      </c>
-      <c r="Z31" s="13">
-        <v>31</v>
-      </c>
-      <c r="AA31" s="13">
-        <v>31</v>
-      </c>
-      <c r="AB31" s="13">
-        <v>31</v>
-      </c>
-      <c r="AC31" s="13">
-        <v>31</v>
-      </c>
-      <c r="AD31" s="13">
-        <v>31</v>
-      </c>
-      <c r="AE31" s="13">
-        <v>31</v>
-      </c>
-      <c r="AF31" s="13">
-        <v>31</v>
-      </c>
-      <c r="AG31" s="13">
-        <v>31</v>
-      </c>
-      <c r="AH31" s="13">
-        <v>31</v>
-      </c>
-      <c r="AI31" s="13">
-        <v>31</v>
-      </c>
-      <c r="AJ31" s="13">
-        <v>31</v>
-      </c>
-      <c r="AK31" s="13">
-        <v>31</v>
-      </c>
-      <c r="AL31" s="13">
-        <v>31</v>
-      </c>
-      <c r="AM31" s="13">
-        <v>31</v>
-      </c>
-      <c r="AN31" s="13">
-        <v>31</v>
-      </c>
-      <c r="AO31" s="13">
-        <v>31</v>
-      </c>
-      <c r="AP31" s="13">
-        <v>31</v>
-      </c>
-      <c r="AQ31" s="13">
-        <v>31</v>
-      </c>
-      <c r="AR31" s="13">
-        <v>31</v>
-      </c>
-      <c r="AS31" s="13">
-        <v>31</v>
-      </c>
-      <c r="AT31" s="13">
-        <v>31</v>
-      </c>
-      <c r="AU31" s="13">
-        <v>31</v>
-      </c>
-      <c r="AV31" s="13">
+      <c r="A31" s="2">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1">
+        <v>31</v>
+      </c>
+      <c r="C31" s="1">
+        <v>31</v>
+      </c>
+      <c r="D31" s="1">
+        <v>31</v>
+      </c>
+      <c r="E31" s="1">
+        <v>31</v>
+      </c>
+      <c r="F31" s="1">
+        <v>31</v>
+      </c>
+      <c r="G31" s="1">
+        <v>31</v>
+      </c>
+      <c r="H31" s="1">
+        <v>31</v>
+      </c>
+      <c r="I31" s="1">
+        <v>31</v>
+      </c>
+      <c r="J31" s="1">
+        <v>31</v>
+      </c>
+      <c r="K31" s="1">
+        <v>31</v>
+      </c>
+      <c r="L31" s="1">
+        <v>31</v>
+      </c>
+      <c r="M31" s="1">
+        <v>31</v>
+      </c>
+      <c r="N31" s="1">
+        <v>31</v>
+      </c>
+      <c r="O31" s="1">
+        <v>31</v>
+      </c>
+      <c r="P31" s="1">
+        <v>31</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>31</v>
+      </c>
+      <c r="R31" s="1">
+        <v>31</v>
+      </c>
+      <c r="S31" s="1">
+        <v>31</v>
+      </c>
+      <c r="T31" s="1">
+        <v>31</v>
+      </c>
+      <c r="U31" s="1">
+        <v>31</v>
+      </c>
+      <c r="V31" s="1">
+        <v>31</v>
+      </c>
+      <c r="W31" s="1">
+        <v>31</v>
+      </c>
+      <c r="X31" s="1">
+        <v>31</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>31</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>31</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>31</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>31</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>31</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>31</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>31</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH31" s="1">
+        <v>31</v>
+      </c>
+      <c r="AI31" s="1">
+        <v>31</v>
+      </c>
+      <c r="AJ31" s="1">
+        <v>31</v>
+      </c>
+      <c r="AK31" s="1">
+        <v>31</v>
+      </c>
+      <c r="AL31" s="1">
+        <v>31</v>
+      </c>
+      <c r="AM31" s="1">
+        <v>31</v>
+      </c>
+      <c r="AN31" s="1">
+        <v>31</v>
+      </c>
+      <c r="AO31" s="1">
+        <v>31</v>
+      </c>
+      <c r="AP31" s="1">
+        <v>31</v>
+      </c>
+      <c r="AQ31" s="1">
+        <v>31</v>
+      </c>
+      <c r="AR31" s="1">
+        <v>31</v>
+      </c>
+      <c r="AS31" s="1">
+        <v>31</v>
+      </c>
+      <c r="AT31" s="1">
+        <v>31</v>
+      </c>
+      <c r="AU31" s="1">
+        <v>31</v>
+      </c>
+      <c r="AV31" s="3">
         <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A32" s="13">
-        <v>31</v>
-      </c>
-      <c r="B32" s="13">
-        <v>31</v>
-      </c>
-      <c r="C32" s="13">
-        <v>31</v>
-      </c>
-      <c r="D32" s="13">
-        <v>31</v>
-      </c>
-      <c r="E32" s="13">
-        <v>31</v>
-      </c>
-      <c r="F32" s="13">
-        <v>31</v>
-      </c>
-      <c r="G32" s="13">
-        <v>31</v>
-      </c>
-      <c r="H32" s="13">
-        <v>31</v>
-      </c>
-      <c r="I32" s="13">
-        <v>31</v>
-      </c>
-      <c r="J32" s="13">
-        <v>31</v>
-      </c>
-      <c r="K32" s="13">
-        <v>31</v>
-      </c>
-      <c r="L32" s="13">
-        <v>31</v>
-      </c>
-      <c r="M32" s="13">
-        <v>31</v>
-      </c>
-      <c r="N32" s="13">
-        <v>31</v>
-      </c>
-      <c r="O32" s="13">
-        <v>31</v>
-      </c>
-      <c r="P32" s="13">
-        <v>31</v>
-      </c>
-      <c r="Q32" s="13">
-        <v>31</v>
-      </c>
-      <c r="R32" s="13">
-        <v>31</v>
-      </c>
-      <c r="S32" s="13">
-        <v>31</v>
-      </c>
-      <c r="T32" s="13">
-        <v>31</v>
-      </c>
-      <c r="U32" s="13">
-        <v>31</v>
-      </c>
-      <c r="V32" s="13">
-        <v>31</v>
-      </c>
-      <c r="W32" s="13">
-        <v>31</v>
-      </c>
-      <c r="X32" s="13">
-        <v>31</v>
-      </c>
-      <c r="Y32" s="13">
-        <v>31</v>
-      </c>
-      <c r="Z32" s="13">
-        <v>31</v>
-      </c>
-      <c r="AA32" s="13">
-        <v>31</v>
-      </c>
-      <c r="AB32" s="13">
-        <v>31</v>
-      </c>
-      <c r="AC32" s="13">
-        <v>31</v>
-      </c>
-      <c r="AD32" s="13">
-        <v>31</v>
-      </c>
-      <c r="AE32" s="13">
-        <v>31</v>
-      </c>
-      <c r="AF32" s="13">
-        <v>31</v>
-      </c>
-      <c r="AG32" s="13">
-        <v>31</v>
-      </c>
-      <c r="AH32" s="13">
-        <v>31</v>
-      </c>
-      <c r="AI32" s="13">
-        <v>31</v>
-      </c>
-      <c r="AJ32" s="13">
-        <v>31</v>
-      </c>
-      <c r="AK32" s="13">
-        <v>31</v>
-      </c>
-      <c r="AL32" s="13">
-        <v>31</v>
-      </c>
-      <c r="AM32" s="13">
-        <v>31</v>
-      </c>
-      <c r="AN32" s="13">
-        <v>31</v>
-      </c>
-      <c r="AO32" s="13">
-        <v>31</v>
-      </c>
-      <c r="AP32" s="13">
-        <v>31</v>
-      </c>
-      <c r="AQ32" s="13">
-        <v>31</v>
-      </c>
-      <c r="AR32" s="13">
-        <v>31</v>
-      </c>
-      <c r="AS32" s="13">
-        <v>31</v>
-      </c>
-      <c r="AT32" s="13">
-        <v>31</v>
-      </c>
-      <c r="AU32" s="13">
-        <v>31</v>
-      </c>
-      <c r="AV32" s="13">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1">
+        <v>31</v>
+      </c>
+      <c r="D32" s="1">
+        <v>31</v>
+      </c>
+      <c r="E32" s="1">
+        <v>31</v>
+      </c>
+      <c r="F32" s="1">
+        <v>31</v>
+      </c>
+      <c r="G32" s="1">
+        <v>31</v>
+      </c>
+      <c r="H32" s="1">
+        <v>31</v>
+      </c>
+      <c r="I32" s="1">
+        <v>31</v>
+      </c>
+      <c r="J32" s="1">
+        <v>31</v>
+      </c>
+      <c r="K32" s="1">
+        <v>31</v>
+      </c>
+      <c r="L32" s="1">
+        <v>31</v>
+      </c>
+      <c r="M32" s="1">
+        <v>31</v>
+      </c>
+      <c r="N32" s="1">
+        <v>31</v>
+      </c>
+      <c r="O32" s="1">
+        <v>31</v>
+      </c>
+      <c r="P32" s="1">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>31</v>
+      </c>
+      <c r="R32" s="1">
+        <v>31</v>
+      </c>
+      <c r="S32" s="1">
+        <v>31</v>
+      </c>
+      <c r="T32" s="1">
+        <v>31</v>
+      </c>
+      <c r="U32" s="1">
+        <v>31</v>
+      </c>
+      <c r="V32" s="1">
+        <v>31</v>
+      </c>
+      <c r="W32" s="1">
+        <v>31</v>
+      </c>
+      <c r="X32" s="1">
+        <v>31</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>31</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>31</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>31</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>31</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>31</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>31</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>31</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH32" s="1">
+        <v>31</v>
+      </c>
+      <c r="AI32" s="1">
+        <v>31</v>
+      </c>
+      <c r="AJ32" s="1">
+        <v>31</v>
+      </c>
+      <c r="AK32" s="1">
+        <v>31</v>
+      </c>
+      <c r="AL32" s="1">
+        <v>31</v>
+      </c>
+      <c r="AM32" s="1">
+        <v>31</v>
+      </c>
+      <c r="AN32" s="1">
+        <v>31</v>
+      </c>
+      <c r="AO32" s="1">
+        <v>31</v>
+      </c>
+      <c r="AP32" s="1">
+        <v>31</v>
+      </c>
+      <c r="AQ32" s="1">
+        <v>31</v>
+      </c>
+      <c r="AR32" s="1">
+        <v>31</v>
+      </c>
+      <c r="AS32" s="1">
+        <v>31</v>
+      </c>
+      <c r="AT32" s="1">
+        <v>31</v>
+      </c>
+      <c r="AU32" s="1">
+        <v>31</v>
+      </c>
+      <c r="AV32" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A33" s="13">
-        <v>31</v>
-      </c>
-      <c r="B33" s="13">
-        <v>31</v>
-      </c>
-      <c r="C33" s="13">
-        <v>31</v>
-      </c>
-      <c r="D33" s="13">
-        <v>31</v>
-      </c>
-      <c r="E33" s="13">
-        <v>31</v>
-      </c>
-      <c r="F33" s="13">
-        <v>31</v>
-      </c>
-      <c r="G33" s="13">
-        <v>31</v>
-      </c>
-      <c r="H33" s="13">
-        <v>31</v>
-      </c>
-      <c r="I33" s="13">
-        <v>31</v>
-      </c>
-      <c r="J33" s="13">
-        <v>31</v>
-      </c>
-      <c r="K33" s="13">
-        <v>31</v>
-      </c>
-      <c r="L33" s="13">
-        <v>31</v>
-      </c>
-      <c r="M33" s="13">
-        <v>31</v>
-      </c>
-      <c r="N33" s="13">
-        <v>31</v>
-      </c>
-      <c r="O33" s="13">
-        <v>31</v>
-      </c>
-      <c r="P33" s="13">
-        <v>31</v>
-      </c>
-      <c r="Q33" s="13">
-        <v>31</v>
-      </c>
-      <c r="R33" s="13">
-        <v>31</v>
-      </c>
-      <c r="S33" s="13">
-        <v>31</v>
-      </c>
-      <c r="T33" s="13">
-        <v>31</v>
-      </c>
-      <c r="U33" s="13">
-        <v>31</v>
-      </c>
-      <c r="V33" s="13">
-        <v>31</v>
-      </c>
-      <c r="W33" s="13">
-        <v>31</v>
-      </c>
-      <c r="X33" s="13">
-        <v>31</v>
-      </c>
-      <c r="Y33" s="13">
-        <v>31</v>
-      </c>
-      <c r="Z33" s="13">
-        <v>31</v>
-      </c>
-      <c r="AA33" s="13">
-        <v>31</v>
-      </c>
-      <c r="AB33" s="13">
-        <v>31</v>
-      </c>
-      <c r="AC33" s="13">
-        <v>31</v>
-      </c>
-      <c r="AD33" s="13">
-        <v>31</v>
-      </c>
-      <c r="AE33" s="13">
-        <v>31</v>
-      </c>
-      <c r="AF33" s="13">
-        <v>31</v>
-      </c>
-      <c r="AG33" s="13">
-        <v>31</v>
-      </c>
-      <c r="AH33" s="13">
-        <v>31</v>
-      </c>
-      <c r="AI33" s="13">
-        <v>31</v>
-      </c>
-      <c r="AJ33" s="13">
-        <v>31</v>
-      </c>
-      <c r="AK33" s="13">
-        <v>31</v>
-      </c>
-      <c r="AL33" s="13">
-        <v>31</v>
-      </c>
-      <c r="AM33" s="13">
-        <v>31</v>
-      </c>
-      <c r="AN33" s="13">
-        <v>31</v>
-      </c>
-      <c r="AO33" s="13">
-        <v>31</v>
-      </c>
-      <c r="AP33" s="13">
-        <v>31</v>
-      </c>
-      <c r="AQ33" s="13">
-        <v>31</v>
-      </c>
-      <c r="AR33" s="13">
-        <v>31</v>
-      </c>
-      <c r="AS33" s="13">
-        <v>31</v>
-      </c>
-      <c r="AT33" s="13">
-        <v>31</v>
-      </c>
-      <c r="AU33" s="13">
-        <v>31</v>
-      </c>
-      <c r="AV33" s="13">
+    <row r="33" spans="1:48" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="4">
+        <v>31</v>
+      </c>
+      <c r="B33" s="5">
+        <v>31</v>
+      </c>
+      <c r="C33" s="5">
+        <v>31</v>
+      </c>
+      <c r="D33" s="5">
+        <v>31</v>
+      </c>
+      <c r="E33" s="5">
+        <v>31</v>
+      </c>
+      <c r="F33" s="5">
+        <v>31</v>
+      </c>
+      <c r="G33" s="5">
+        <v>31</v>
+      </c>
+      <c r="H33" s="5">
+        <v>31</v>
+      </c>
+      <c r="I33" s="5">
+        <v>31</v>
+      </c>
+      <c r="J33" s="5">
+        <v>31</v>
+      </c>
+      <c r="K33" s="5">
+        <v>31</v>
+      </c>
+      <c r="L33" s="5">
+        <v>31</v>
+      </c>
+      <c r="M33" s="5">
+        <v>31</v>
+      </c>
+      <c r="N33" s="5">
+        <v>31</v>
+      </c>
+      <c r="O33" s="5">
+        <v>31</v>
+      </c>
+      <c r="P33" s="5">
+        <v>31</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>31</v>
+      </c>
+      <c r="R33" s="5">
+        <v>31</v>
+      </c>
+      <c r="S33" s="5">
+        <v>31</v>
+      </c>
+      <c r="T33" s="5">
+        <v>31</v>
+      </c>
+      <c r="U33" s="5">
+        <v>31</v>
+      </c>
+      <c r="V33" s="5">
+        <v>31</v>
+      </c>
+      <c r="W33" s="5">
+        <v>31</v>
+      </c>
+      <c r="X33" s="5">
+        <v>31</v>
+      </c>
+      <c r="Y33" s="5">
+        <v>31</v>
+      </c>
+      <c r="Z33" s="5">
+        <v>31</v>
+      </c>
+      <c r="AA33" s="5">
+        <v>31</v>
+      </c>
+      <c r="AB33" s="5">
+        <v>31</v>
+      </c>
+      <c r="AC33" s="5">
+        <v>31</v>
+      </c>
+      <c r="AD33" s="5">
+        <v>31</v>
+      </c>
+      <c r="AE33" s="5">
+        <v>31</v>
+      </c>
+      <c r="AF33" s="5">
+        <v>31</v>
+      </c>
+      <c r="AG33" s="5">
+        <v>31</v>
+      </c>
+      <c r="AH33" s="5">
+        <v>31</v>
+      </c>
+      <c r="AI33" s="5">
+        <v>31</v>
+      </c>
+      <c r="AJ33" s="5">
+        <v>31</v>
+      </c>
+      <c r="AK33" s="5">
+        <v>31</v>
+      </c>
+      <c r="AL33" s="5">
+        <v>31</v>
+      </c>
+      <c r="AM33" s="5">
+        <v>31</v>
+      </c>
+      <c r="AN33" s="5">
+        <v>31</v>
+      </c>
+      <c r="AO33" s="5">
+        <v>31</v>
+      </c>
+      <c r="AP33" s="5">
+        <v>31</v>
+      </c>
+      <c r="AQ33" s="5">
+        <v>31</v>
+      </c>
+      <c r="AR33" s="5">
+        <v>31</v>
+      </c>
+      <c r="AS33" s="5">
+        <v>31</v>
+      </c>
+      <c r="AT33" s="5">
+        <v>31</v>
+      </c>
+      <c r="AU33" s="5">
+        <v>31</v>
+      </c>
+      <c r="AV33" s="8">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="AW1:BI2 A1:AV28 AZ3:BI16 AW3:AY28 A29:AY41">
+  <conditionalFormatting sqref="AW1:BI2 AZ3:BI16 AW3:AY28 A29:AY41 A1:AV28">
     <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>30</formula>
     </cfRule>

--- a/Excel/TitleStage.xlsx
+++ b/Excel/TitleStage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15ABD03-2482-40C1-B337-3165A744AA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56076D6C-916A-461E-BA6D-7300B23863FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
@@ -710,7 +710,7 @@
   <dimension ref="A1:AV33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="1">
         <v>0</v>
@@ -5538,7 +5538,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="AW1:BI2 AZ3:BI16 AW3:AY28 A29:AY41 A1:AV28">
+  <conditionalFormatting sqref="AW1:BI2 A1:AV28 AZ3:BI16 AW3:AY28 A29:AY41">
     <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>30</formula>
     </cfRule>

--- a/Excel/TitleStage.xlsx
+++ b/Excel/TitleStage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56076D6C-916A-461E-BA6D-7300B23863FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6CD7F5-6EA8-4FEF-8FBA-493A5100F7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
@@ -710,7 +710,7 @@
   <dimension ref="A1:AV33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -980,16 +980,16 @@
         <v>20</v>
       </c>
       <c r="AM2" s="7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AN2" s="7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AO2" s="7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AP2" s="7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AQ2" s="7">
         <v>30</v>
@@ -1129,16 +1129,16 @@
         <v>20</v>
       </c>
       <c r="AN3" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AO3" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AP3" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AQ3" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AR3" s="1">
         <v>30</v>
@@ -1266,28 +1266,28 @@
         <v>31</v>
       </c>
       <c r="AK4" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AL4" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AM4" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AN4" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AO4" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AP4" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AQ4" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AR4" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AS4" s="1">
         <v>30</v>
@@ -1409,10 +1409,10 @@
         <v>31</v>
       </c>
       <c r="AJ5" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AK5" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AL5" s="1">
         <v>31</v>
@@ -1421,22 +1421,22 @@
         <v>31</v>
       </c>
       <c r="AN5" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AO5" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AP5" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AQ5" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AR5" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AS5" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AT5" s="1">
         <v>30</v>
@@ -1552,10 +1552,10 @@
         <v>31</v>
       </c>
       <c r="AI6" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AJ6" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AK6" s="1">
         <v>31</v>
@@ -1570,22 +1570,22 @@
         <v>31</v>
       </c>
       <c r="AO6" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AP6" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AQ6" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AR6" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AS6" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AT6" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AU6" s="1">
         <v>30</v>
@@ -1695,10 +1695,10 @@
         <v>31</v>
       </c>
       <c r="AH7" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AI7" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AJ7" s="1">
         <v>31</v>
@@ -1719,16 +1719,16 @@
         <v>31</v>
       </c>
       <c r="AP7" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AQ7" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AR7" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AS7" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AT7" s="1">
         <v>20</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AD8" s="1">
         <v>31</v>
@@ -1838,10 +1838,10 @@
         <v>31</v>
       </c>
       <c r="AG8" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AH8" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AI8" s="1">
         <v>31</v>
@@ -1868,16 +1868,16 @@
         <v>31</v>
       </c>
       <c r="AQ8" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AR8" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AS8" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AT8" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AU8" s="1">
         <v>20</v>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AD9" s="1">
         <v>31</v>
@@ -1981,10 +1981,10 @@
         <v>31</v>
       </c>
       <c r="AF9" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AG9" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AH9" s="1">
         <v>31</v>
@@ -2118,16 +2118,16 @@
         <v>0</v>
       </c>
       <c r="AC10" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AD10" s="1">
         <v>31</v>
       </c>
       <c r="AE10" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AF10" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AG10" s="1">
         <v>31</v>
@@ -2264,13 +2264,13 @@
         <v>0</v>
       </c>
       <c r="AC11" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AD11" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AE11" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AF11" s="1">
         <v>31</v>
@@ -2410,10 +2410,10 @@
         <v>0</v>
       </c>
       <c r="AC12" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD12" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AE12" s="1">
         <v>31</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD13" s="1">
         <v>31</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD14" s="1">
         <v>31</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD15" s="1">
         <v>31</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD16" s="1">
         <v>31</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="N17" s="1">
         <v>0</v>
@@ -3140,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD17" s="1">
         <v>31</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD18" s="1">
         <v>31</v>
@@ -3366,10 +3366,10 @@
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I19" s="1">
         <v>13</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD19" s="1">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I20" s="1">
         <v>13</v>
@@ -3578,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD20" s="1">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD21" s="1">
         <v>0</v>
@@ -3807,13 +3807,13 @@
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I22" s="1">
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K22" s="1">
         <v>13</v>
@@ -3873,25 +3873,25 @@
         <v>1</v>
       </c>
       <c r="AD22" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE22" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AF22" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AG22" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AH22" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AI22" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ22" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AK22" s="1">
         <v>6</v>
@@ -3977,17 +3977,17 @@
         <v>0</v>
       </c>
       <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
         <v>50</v>
       </c>
-      <c r="Q23" s="1">
-        <v>0</v>
-      </c>
-      <c r="R23" s="1">
-        <v>0</v>
-      </c>
-      <c r="S23" s="1">
-        <v>0</v>
-      </c>
       <c r="T23" s="1">
         <v>0</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD23" s="1">
         <v>0</v>
@@ -4102,22 +4102,22 @@
         <v>0</v>
       </c>
       <c r="I24" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J24" s="1">
         <v>10</v>
       </c>
       <c r="K24" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L24" s="1">
         <v>0</v>
       </c>
       <c r="M24" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N24" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O24" s="1">
         <v>0</v>
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD24" s="1">
         <v>0</v>
@@ -4251,10 +4251,10 @@
         <v>0</v>
       </c>
       <c r="J25" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L25" s="1">
         <v>0</v>
@@ -4308,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD25" s="1">
         <v>31</v>
@@ -4400,10 +4400,10 @@
         <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L26" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -4454,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD26" s="1">
         <v>31</v>
@@ -4546,10 +4546,10 @@
         <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L27" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD27" s="1">
         <v>31</v>
@@ -5538,7 +5538,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="AW1:BI2 A1:AV28 AZ3:BI16 AW3:AY28 A29:AY41">
+  <conditionalFormatting sqref="AW1:BI2 AZ3:BI16 AW3:AY28 A29:AY41 A1:AV28">
     <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>30</formula>
     </cfRule>
